--- a/raw_data/20200818_saline/20200818_Sensor2_Test_57.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_57.xlsx
@@ -1,736 +1,1152 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD75C7B3-3ACE-4473-9038-0C4DE7E1192E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>50770.325162</v>
+        <v>50770.325162000001</v>
       </c>
       <c r="B2" s="1">
-        <v>14.102868</v>
+        <v>14.102868000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>1243.740000</v>
+        <v>1243.74</v>
       </c>
       <c r="D2" s="1">
-        <v>-305.060000</v>
+        <v>-305.06</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>50780.696541</v>
+        <v>50780.696540999998</v>
       </c>
       <c r="G2" s="1">
-        <v>14.105749</v>
+        <v>14.105748999999999</v>
       </c>
       <c r="H2" s="1">
-        <v>1268.410000</v>
+        <v>1268.4100000000001</v>
       </c>
       <c r="I2" s="1">
-        <v>-263.973000</v>
+        <v>-263.97300000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>50790.936445</v>
+        <v>50790.936444999999</v>
       </c>
       <c r="L2" s="1">
-        <v>14.108593</v>
+        <v>14.108593000000001</v>
       </c>
       <c r="M2" s="1">
-        <v>1304.070000</v>
+        <v>1304.07</v>
       </c>
       <c r="N2" s="1">
-        <v>-201.433000</v>
+        <v>-201.43299999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>50801.096992</v>
+        <v>50801.096991999999</v>
       </c>
       <c r="Q2" s="1">
         <v>14.111416</v>
       </c>
       <c r="R2" s="1">
-        <v>1315.510000</v>
+        <v>1315.51</v>
       </c>
       <c r="S2" s="1">
-        <v>-183.248000</v>
+        <v>-183.24799999999999</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>50811.359219</v>
+        <v>50811.359218999998</v>
       </c>
       <c r="V2" s="1">
-        <v>14.114266</v>
+        <v>14.114266000000001</v>
       </c>
       <c r="W2" s="1">
-        <v>1328.170000</v>
+        <v>1328.17</v>
       </c>
       <c r="X2" s="1">
-        <v>-169.852000</v>
+        <v>-169.852</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>50821.473144</v>
+        <v>50821.473144000003</v>
       </c>
       <c r="AA2" s="1">
-        <v>14.117076</v>
+        <v>14.117076000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>1345.330000</v>
+        <v>1345.33</v>
       </c>
       <c r="AC2" s="1">
-        <v>-167.824000</v>
+        <v>-167.82400000000001</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>50831.740297</v>
+        <v>50831.740296999997</v>
       </c>
       <c r="AF2" s="1">
         <v>14.119928</v>
       </c>
       <c r="AG2" s="1">
-        <v>1357.920000</v>
+        <v>1357.92</v>
       </c>
       <c r="AH2" s="1">
-        <v>-177.775000</v>
+        <v>-177.77500000000001</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>50842.156814</v>
+        <v>50842.156814000002</v>
       </c>
       <c r="AK2" s="1">
         <v>14.122821</v>
       </c>
       <c r="AL2" s="1">
-        <v>1378.640000</v>
+        <v>1378.64</v>
       </c>
       <c r="AM2" s="1">
-        <v>-207.735000</v>
+        <v>-207.73500000000001</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>50852.796494</v>
+        <v>50852.796494000002</v>
       </c>
       <c r="AP2" s="1">
-        <v>14.125777</v>
+        <v>14.125776999999999</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1400.290000</v>
+        <v>1400.29</v>
       </c>
       <c r="AR2" s="1">
-        <v>-251.571000</v>
+        <v>-251.571</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>50863.782588</v>
+        <v>50863.782588000002</v>
       </c>
       <c r="AU2" s="1">
         <v>14.128828</v>
       </c>
       <c r="AV2" s="1">
-        <v>1424.870000</v>
+        <v>1424.87</v>
       </c>
       <c r="AW2" s="1">
-        <v>-311.406000</v>
+        <v>-311.40600000000001</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>50875.252370</v>
+        <v>50875.252370000002</v>
       </c>
       <c r="AZ2" s="1">
-        <v>14.132015</v>
+        <v>14.132015000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1444.360000</v>
+        <v>1444.36</v>
       </c>
       <c r="BB2" s="1">
-        <v>-363.374000</v>
+        <v>-363.37400000000002</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>50886.267489</v>
+        <v>50886.267488999998</v>
       </c>
       <c r="BE2" s="1">
-        <v>14.135074</v>
+        <v>14.135073999999999</v>
       </c>
       <c r="BF2" s="1">
-        <v>1530.000000</v>
+        <v>1530</v>
       </c>
       <c r="BG2" s="1">
-        <v>-610.493000</v>
+        <v>-610.49300000000005</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>50897.266805</v>
+        <v>50897.266804999999</v>
       </c>
       <c r="BJ2" s="1">
-        <v>14.138130</v>
+        <v>14.13813</v>
       </c>
       <c r="BK2" s="1">
-        <v>1684.910000</v>
+        <v>1684.91</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1052.710000</v>
+        <v>-1052.71</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>50908.337476</v>
+        <v>50908.337476000001</v>
       </c>
       <c r="BO2" s="1">
-        <v>14.141205</v>
+        <v>14.141204999999999</v>
       </c>
       <c r="BP2" s="1">
-        <v>1980.290000</v>
+        <v>1980.29</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1816.860000</v>
+        <v>-1816.86</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>50918.725686</v>
+        <v>50918.725685999998</v>
       </c>
       <c r="BT2" s="1">
-        <v>14.144090</v>
+        <v>14.14409</v>
       </c>
       <c r="BU2" s="1">
-        <v>2367.930000</v>
+        <v>2367.9299999999998</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2695.720000</v>
+        <v>-2695.72</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>50929.482422</v>
+        <v>50929.482422000001</v>
       </c>
       <c r="BY2" s="1">
         <v>14.147078</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2851.420000</v>
+        <v>2851.42</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3658.590000</v>
+        <v>-3658.59</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>50940.417721</v>
+        <v>50940.417720999998</v>
       </c>
       <c r="CD2" s="1">
-        <v>14.150116</v>
+        <v>14.150116000000001</v>
       </c>
       <c r="CE2" s="1">
-        <v>4266.760000</v>
+        <v>4266.76</v>
       </c>
       <c r="CF2" s="1">
-        <v>-5974.620000</v>
+        <v>-5974.62</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
         <v>50770.704607</v>
       </c>
@@ -738,28 +1154,28 @@
         <v>14.102974</v>
       </c>
       <c r="C3" s="1">
-        <v>1243.740000</v>
+        <v>1243.74</v>
       </c>
       <c r="D3" s="1">
-        <v>-305.200000</v>
+        <v>-305.2</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>50781.106509</v>
+        <v>50781.106508999997</v>
       </c>
       <c r="G3" s="1">
-        <v>14.105863</v>
+        <v>14.105862999999999</v>
       </c>
       <c r="H3" s="1">
-        <v>1269.030000</v>
+        <v>1269.03</v>
       </c>
       <c r="I3" s="1">
-        <v>-263.481000</v>
+        <v>-263.48099999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
         <v>50791.290063</v>
@@ -768,360 +1184,360 @@
         <v>14.108692</v>
       </c>
       <c r="M3" s="1">
-        <v>1303.810000</v>
+        <v>1303.81</v>
       </c>
       <c r="N3" s="1">
-        <v>-201.393000</v>
+        <v>-201.393</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>50801.480895</v>
+        <v>50801.480895000001</v>
       </c>
       <c r="Q3" s="1">
-        <v>14.111522</v>
+        <v>14.111522000000001</v>
       </c>
       <c r="R3" s="1">
-        <v>1315.450000</v>
+        <v>1315.45</v>
       </c>
       <c r="S3" s="1">
-        <v>-183.307000</v>
+        <v>-183.30699999999999</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>50811.736643</v>
+        <v>50811.736642999997</v>
       </c>
       <c r="V3" s="1">
         <v>14.114371</v>
       </c>
       <c r="W3" s="1">
-        <v>1328.330000</v>
+        <v>1328.33</v>
       </c>
       <c r="X3" s="1">
-        <v>-169.805000</v>
+        <v>-169.80500000000001</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>50821.893222</v>
+        <v>50821.893221999999</v>
       </c>
       <c r="AA3" s="1">
         <v>14.117193</v>
       </c>
       <c r="AB3" s="1">
-        <v>1345.260000</v>
+        <v>1345.26</v>
       </c>
       <c r="AC3" s="1">
-        <v>-167.861000</v>
+        <v>-167.86099999999999</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>50832.162423</v>
+        <v>50832.162423000002</v>
       </c>
       <c r="AF3" s="1">
-        <v>14.120045</v>
+        <v>14.120044999999999</v>
       </c>
       <c r="AG3" s="1">
-        <v>1358.190000</v>
+        <v>1358.19</v>
       </c>
       <c r="AH3" s="1">
-        <v>-177.800000</v>
+        <v>-177.8</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>50842.267723</v>
+        <v>50842.267722999997</v>
       </c>
       <c r="AK3" s="1">
         <v>14.122852</v>
       </c>
       <c r="AL3" s="1">
-        <v>1378.620000</v>
+        <v>1378.62</v>
       </c>
       <c r="AM3" s="1">
-        <v>-207.720000</v>
+        <v>-207.72</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>50853.181356</v>
+        <v>50853.181356000001</v>
       </c>
       <c r="AP3" s="1">
-        <v>14.125884</v>
+        <v>14.125883999999999</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1400.250000</v>
+        <v>1400.25</v>
       </c>
       <c r="AR3" s="1">
-        <v>-251.541000</v>
+        <v>-251.541</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>50864.147405</v>
+        <v>50864.147405000003</v>
       </c>
       <c r="AU3" s="1">
-        <v>14.128930</v>
+        <v>14.12893</v>
       </c>
       <c r="AV3" s="1">
-        <v>1424.870000</v>
+        <v>1424.87</v>
       </c>
       <c r="AW3" s="1">
-        <v>-311.399000</v>
+        <v>-311.399</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>50875.629325</v>
+        <v>50875.629325000002</v>
       </c>
       <c r="AZ3" s="1">
-        <v>14.132119</v>
+        <v>14.132118999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>1444.390000</v>
+        <v>1444.39</v>
       </c>
       <c r="BB3" s="1">
-        <v>-363.350000</v>
+        <v>-363.35</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>50886.990686</v>
+        <v>50886.990685999997</v>
       </c>
       <c r="BE3" s="1">
         <v>14.135275</v>
       </c>
       <c r="BF3" s="1">
-        <v>1530.020000</v>
+        <v>1530.02</v>
       </c>
       <c r="BG3" s="1">
-        <v>-610.502000</v>
+        <v>-610.50199999999995</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>50898.019232</v>
+        <v>50898.019231999999</v>
       </c>
       <c r="BJ3" s="1">
         <v>14.138339</v>
       </c>
       <c r="BK3" s="1">
-        <v>1684.890000</v>
+        <v>1684.89</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1052.670000</v>
+        <v>-1052.67</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>50908.742209</v>
+        <v>50908.742209000004</v>
       </c>
       <c r="BO3" s="1">
-        <v>14.141317</v>
+        <v>14.141317000000001</v>
       </c>
       <c r="BP3" s="1">
-        <v>1980.000000</v>
+        <v>1980</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1817.060000</v>
+        <v>-1817.06</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>50919.203866</v>
+        <v>50919.203866000003</v>
       </c>
       <c r="BT3" s="1">
         <v>14.144223</v>
       </c>
       <c r="BU3" s="1">
-        <v>2367.790000</v>
+        <v>2367.79</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2695.810000</v>
+        <v>-2695.81</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>50929.951141</v>
+        <v>50929.951140999998</v>
       </c>
       <c r="BY3" s="1">
         <v>14.147209</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2851.070000</v>
+        <v>2851.07</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3658.980000</v>
+        <v>-3658.98</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>50941.314984</v>
+        <v>50941.314983999997</v>
       </c>
       <c r="CD3" s="1">
-        <v>14.150365</v>
+        <v>14.150365000000001</v>
       </c>
       <c r="CE3" s="1">
-        <v>4258.770000</v>
+        <v>4258.7700000000004</v>
       </c>
       <c r="CF3" s="1">
-        <v>-5963.570000</v>
+        <v>-5963.57</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>50771.048366</v>
+        <v>50771.048366000003</v>
       </c>
       <c r="B4" s="1">
         <v>14.103069</v>
       </c>
       <c r="C4" s="1">
-        <v>1243.610000</v>
+        <v>1243.6099999999999</v>
       </c>
       <c r="D4" s="1">
-        <v>-305.150000</v>
+        <v>-305.14999999999998</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>50781.452906</v>
+        <v>50781.452905999999</v>
       </c>
       <c r="G4" s="1">
         <v>14.105959</v>
       </c>
       <c r="H4" s="1">
-        <v>1267.750000</v>
+        <v>1267.75</v>
       </c>
       <c r="I4" s="1">
-        <v>-263.451000</v>
+        <v>-263.45100000000002</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>50791.639093</v>
+        <v>50791.639092999998</v>
       </c>
       <c r="L4" s="1">
         <v>14.108789</v>
       </c>
       <c r="M4" s="1">
-        <v>1303.970000</v>
+        <v>1303.97</v>
       </c>
       <c r="N4" s="1">
-        <v>-201.185000</v>
+        <v>-201.185</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>50801.899487</v>
+        <v>50801.899487000002</v>
       </c>
       <c r="Q4" s="1">
         <v>14.111639</v>
       </c>
       <c r="R4" s="1">
-        <v>1315.390000</v>
+        <v>1315.39</v>
       </c>
       <c r="S4" s="1">
-        <v>-183.275000</v>
+        <v>-183.27500000000001</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>50812.157747</v>
+        <v>50812.157746999997</v>
       </c>
       <c r="V4" s="1">
         <v>14.114488</v>
       </c>
       <c r="W4" s="1">
-        <v>1328.290000</v>
+        <v>1328.29</v>
       </c>
       <c r="X4" s="1">
-        <v>-169.897000</v>
+        <v>-169.89699999999999</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>50822.235956</v>
+        <v>50822.235955999997</v>
       </c>
       <c r="AA4" s="1">
         <v>14.117288</v>
       </c>
       <c r="AB4" s="1">
-        <v>1345.420000</v>
+        <v>1345.42</v>
       </c>
       <c r="AC4" s="1">
-        <v>-167.964000</v>
+        <v>-167.964</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>50832.460984</v>
+        <v>50832.460983999998</v>
       </c>
       <c r="AF4" s="1">
-        <v>14.120128</v>
+        <v>14.120127999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>1357.980000</v>
+        <v>1357.98</v>
       </c>
       <c r="AH4" s="1">
-        <v>-177.743000</v>
+        <v>-177.74299999999999</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>50842.610617</v>
+        <v>50842.610616999998</v>
       </c>
       <c r="AK4" s="1">
         <v>14.122947</v>
       </c>
       <c r="AL4" s="1">
-        <v>1378.640000</v>
+        <v>1378.64</v>
       </c>
       <c r="AM4" s="1">
-        <v>-207.721000</v>
+        <v>-207.721</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>50853.539466</v>
+        <v>50853.539466000002</v>
       </c>
       <c r="AP4" s="1">
         <v>14.125983</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1400.260000</v>
+        <v>1400.26</v>
       </c>
       <c r="AR4" s="1">
-        <v>-251.573000</v>
+        <v>-251.57300000000001</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
         <v>50864.513948</v>
@@ -1130,180 +1546,180 @@
         <v>14.129032</v>
       </c>
       <c r="AV4" s="1">
-        <v>1424.820000</v>
+        <v>1424.82</v>
       </c>
       <c r="AW4" s="1">
-        <v>-311.408000</v>
+        <v>-311.40800000000002</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>50876.376300</v>
+        <v>50876.376300000004</v>
       </c>
       <c r="AZ4" s="1">
         <v>14.132327</v>
       </c>
       <c r="BA4" s="1">
-        <v>1444.390000</v>
+        <v>1444.39</v>
       </c>
       <c r="BB4" s="1">
-        <v>-363.368000</v>
+        <v>-363.36799999999999</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>50887.351742</v>
+        <v>50887.351741999999</v>
       </c>
       <c r="BE4" s="1">
         <v>14.135375</v>
       </c>
       <c r="BF4" s="1">
-        <v>1529.980000</v>
+        <v>1529.98</v>
       </c>
       <c r="BG4" s="1">
-        <v>-610.474000</v>
+        <v>-610.47400000000005</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>50898.421455</v>
+        <v>50898.421455000003</v>
       </c>
       <c r="BJ4" s="1">
-        <v>14.138450</v>
+        <v>14.138450000000001</v>
       </c>
       <c r="BK4" s="1">
-        <v>1684.830000</v>
+        <v>1684.83</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1052.680000</v>
+        <v>-1052.68</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>50909.164840</v>
+        <v>50909.164839999998</v>
       </c>
       <c r="BO4" s="1">
         <v>14.141435</v>
       </c>
       <c r="BP4" s="1">
-        <v>1980.070000</v>
+        <v>1980.07</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1817.150000</v>
+        <v>-1817.15</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>50919.928483</v>
+        <v>50919.928483000003</v>
       </c>
       <c r="BT4" s="1">
         <v>14.144425</v>
       </c>
       <c r="BU4" s="1">
-        <v>2367.540000</v>
+        <v>2367.54</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2695.950000</v>
+        <v>-2695.95</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
         <v>50930.711012</v>
       </c>
       <c r="BY4" s="1">
-        <v>14.147420</v>
+        <v>14.14742</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2850.670000</v>
+        <v>2850.67</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3659.210000</v>
+        <v>-3659.21</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>50941.545127</v>
+        <v>50941.545126999998</v>
       </c>
       <c r="CD4" s="1">
-        <v>14.150429</v>
+        <v>14.150429000000001</v>
       </c>
       <c r="CE4" s="1">
-        <v>4266.000000</v>
+        <v>4266</v>
       </c>
       <c r="CF4" s="1">
-        <v>-5975.580000</v>
+        <v>-5975.58</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>50771.393581</v>
+        <v>50771.393580999997</v>
       </c>
       <c r="B5" s="1">
-        <v>14.103165</v>
+        <v>14.103165000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>1243.650000</v>
+        <v>1243.6500000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>-305.227000</v>
+        <v>-305.22699999999998</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>50781.797662</v>
+        <v>50781.797661999997</v>
       </c>
       <c r="G5" s="1">
         <v>14.106055</v>
       </c>
       <c r="H5" s="1">
-        <v>1268.930000</v>
+        <v>1268.93</v>
       </c>
       <c r="I5" s="1">
-        <v>-264.026000</v>
+        <v>-264.02600000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>50792.060879</v>
+        <v>50792.060878999997</v>
       </c>
       <c r="L5" s="1">
-        <v>14.108906</v>
+        <v>14.108905999999999</v>
       </c>
       <c r="M5" s="1">
-        <v>1303.740000</v>
+        <v>1303.74</v>
       </c>
       <c r="N5" s="1">
-        <v>-201.175000</v>
+        <v>-201.17500000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>50802.200062</v>
+        <v>50802.200062000004</v>
       </c>
       <c r="Q5" s="1">
         <v>14.111722</v>
       </c>
       <c r="R5" s="1">
-        <v>1315.440000</v>
+        <v>1315.44</v>
       </c>
       <c r="S5" s="1">
-        <v>-183.227000</v>
+        <v>-183.227</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
         <v>50812.456865</v>
@@ -1312,210 +1728,210 @@
         <v>14.114571</v>
       </c>
       <c r="W5" s="1">
-        <v>1328.230000</v>
+        <v>1328.23</v>
       </c>
       <c r="X5" s="1">
-        <v>-169.665000</v>
+        <v>-169.66499999999999</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>50822.584675</v>
+        <v>50822.584674999998</v>
       </c>
       <c r="AA5" s="1">
-        <v>14.117385</v>
+        <v>14.117385000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>1345.380000</v>
+        <v>1345.38</v>
       </c>
       <c r="AC5" s="1">
-        <v>-167.937000</v>
+        <v>-167.93700000000001</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>50832.804710</v>
+        <v>50832.804709999997</v>
       </c>
       <c r="AF5" s="1">
         <v>14.120224</v>
       </c>
       <c r="AG5" s="1">
-        <v>1357.960000</v>
+        <v>1357.96</v>
       </c>
       <c r="AH5" s="1">
-        <v>-177.846000</v>
+        <v>-177.846</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>50842.958808</v>
+        <v>50842.958808000003</v>
       </c>
       <c r="AK5" s="1">
         <v>14.123044</v>
       </c>
       <c r="AL5" s="1">
-        <v>1378.610000</v>
+        <v>1378.61</v>
       </c>
       <c r="AM5" s="1">
-        <v>-207.758000</v>
+        <v>-207.75800000000001</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>50854.272555</v>
+        <v>50854.272555000003</v>
       </c>
       <c r="AP5" s="1">
         <v>14.126187</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1400.250000</v>
+        <v>1400.25</v>
       </c>
       <c r="AR5" s="1">
-        <v>-251.556000</v>
+        <v>-251.55600000000001</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>50865.243077</v>
+        <v>50865.243076999999</v>
       </c>
       <c r="AU5" s="1">
         <v>14.129234</v>
       </c>
       <c r="AV5" s="1">
-        <v>1424.870000</v>
+        <v>1424.87</v>
       </c>
       <c r="AW5" s="1">
-        <v>-311.415000</v>
+        <v>-311.41500000000002</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>50876.735372</v>
+        <v>50876.735372000003</v>
       </c>
       <c r="AZ5" s="1">
-        <v>14.132426</v>
+        <v>14.132426000000001</v>
       </c>
       <c r="BA5" s="1">
-        <v>1444.400000</v>
+        <v>1444.4</v>
       </c>
       <c r="BB5" s="1">
-        <v>-363.403000</v>
+        <v>-363.40300000000002</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>50887.710351</v>
+        <v>50887.710351000002</v>
       </c>
       <c r="BE5" s="1">
         <v>14.135475</v>
       </c>
       <c r="BF5" s="1">
-        <v>1530.000000</v>
+        <v>1530</v>
       </c>
       <c r="BG5" s="1">
-        <v>-610.460000</v>
+        <v>-610.46</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>50898.799438</v>
+        <v>50898.799438000002</v>
       </c>
       <c r="BJ5" s="1">
         <v>14.138555</v>
       </c>
       <c r="BK5" s="1">
-        <v>1684.920000</v>
+        <v>1684.92</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1052.530000</v>
+        <v>-1052.53</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>50909.865648</v>
+        <v>50909.865647999999</v>
       </c>
       <c r="BO5" s="1">
         <v>14.141629</v>
       </c>
       <c r="BP5" s="1">
-        <v>1979.930000</v>
+        <v>1979.93</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1817.170000</v>
+        <v>-1817.17</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>50920.046067</v>
+        <v>50920.046067000003</v>
       </c>
       <c r="BT5" s="1">
-        <v>14.144457</v>
+        <v>14.144456999999999</v>
       </c>
       <c r="BU5" s="1">
-        <v>2367.290000</v>
+        <v>2367.29</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2695.740000</v>
+        <v>-2695.74</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>50930.828601</v>
+        <v>50930.828601000001</v>
       </c>
       <c r="BY5" s="1">
-        <v>14.147452</v>
+        <v>14.147451999999999</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2850.900000</v>
+        <v>2850.9</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3659.260000</v>
+        <v>-3659.26</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>50942.064960</v>
+        <v>50942.064960000003</v>
       </c>
       <c r="CD5" s="1">
-        <v>14.150574</v>
+        <v>14.150574000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>4256.040000</v>
+        <v>4256.04</v>
       </c>
       <c r="CF5" s="1">
-        <v>-5974.210000</v>
+        <v>-5974.21</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>50771.825063</v>
+        <v>50771.825062999997</v>
       </c>
       <c r="B6" s="1">
         <v>14.103285</v>
       </c>
       <c r="C6" s="1">
-        <v>1243.630000</v>
+        <v>1243.6300000000001</v>
       </c>
       <c r="D6" s="1">
-        <v>-305.034000</v>
+        <v>-305.03399999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>50782.231625</v>
@@ -1524,43 +1940,43 @@
         <v>14.106175</v>
       </c>
       <c r="H6" s="1">
-        <v>1269.020000</v>
+        <v>1269.02</v>
       </c>
       <c r="I6" s="1">
-        <v>-263.360000</v>
+        <v>-263.36</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>50792.334635</v>
+        <v>50792.334634999999</v>
       </c>
       <c r="L6" s="1">
-        <v>14.108982</v>
+        <v>14.108981999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>1304.100000</v>
+        <v>1304.0999999999999</v>
       </c>
       <c r="N6" s="1">
-        <v>-201.111000</v>
+        <v>-201.11099999999999</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>50802.548751</v>
+        <v>50802.548751000002</v>
       </c>
       <c r="Q6" s="1">
-        <v>14.111819</v>
+        <v>14.111819000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>1315.470000</v>
+        <v>1315.47</v>
       </c>
       <c r="S6" s="1">
-        <v>-183.173000</v>
+        <v>-183.173</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
         <v>50812.794146</v>
@@ -1569,28 +1985,28 @@
         <v>14.114665</v>
       </c>
       <c r="W6" s="1">
-        <v>1328.510000</v>
+        <v>1328.51</v>
       </c>
       <c r="X6" s="1">
-        <v>-169.965000</v>
+        <v>-169.965</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>50822.930356</v>
+        <v>50822.930355999997</v>
       </c>
       <c r="AA6" s="1">
         <v>14.117481</v>
       </c>
       <c r="AB6" s="1">
-        <v>1345.230000</v>
+        <v>1345.23</v>
       </c>
       <c r="AC6" s="1">
-        <v>-167.869000</v>
+        <v>-167.869</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
         <v>50833.149459</v>
@@ -1599,88 +2015,88 @@
         <v>14.120319</v>
       </c>
       <c r="AG6" s="1">
-        <v>1357.920000</v>
+        <v>1357.92</v>
       </c>
       <c r="AH6" s="1">
-        <v>-177.478000</v>
+        <v>-177.47800000000001</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>50843.656680</v>
+        <v>50843.65668</v>
       </c>
       <c r="AK6" s="1">
-        <v>14.123238</v>
+        <v>14.123238000000001</v>
       </c>
       <c r="AL6" s="1">
-        <v>1378.610000</v>
+        <v>1378.61</v>
       </c>
       <c r="AM6" s="1">
-        <v>-207.752000</v>
+        <v>-207.75200000000001</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>50854.648521</v>
+        <v>50854.648521000003</v>
       </c>
       <c r="AP6" s="1">
         <v>14.126291</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1400.260000</v>
+        <v>1400.26</v>
       </c>
       <c r="AR6" s="1">
-        <v>-251.539000</v>
+        <v>-251.53899999999999</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>50865.633420</v>
+        <v>50865.633419999998</v>
       </c>
       <c r="AU6" s="1">
         <v>14.129343</v>
       </c>
       <c r="AV6" s="1">
-        <v>1424.880000</v>
+        <v>1424.88</v>
       </c>
       <c r="AW6" s="1">
-        <v>-311.426000</v>
+        <v>-311.42599999999999</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>50877.091532</v>
+        <v>50877.091531999999</v>
       </c>
       <c r="AZ6" s="1">
-        <v>14.132525</v>
+        <v>14.132524999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>1444.360000</v>
+        <v>1444.36</v>
       </c>
       <c r="BB6" s="1">
-        <v>-363.358000</v>
+        <v>-363.358</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>50888.388381</v>
+        <v>50888.388380999997</v>
       </c>
       <c r="BE6" s="1">
-        <v>14.135663</v>
+        <v>14.135662999999999</v>
       </c>
       <c r="BF6" s="1">
-        <v>1530.010000</v>
+        <v>1530.01</v>
       </c>
       <c r="BG6" s="1">
-        <v>-610.456000</v>
+        <v>-610.45600000000002</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
         <v>50899.475951</v>
@@ -1689,315 +2105,315 @@
         <v>14.138743</v>
       </c>
       <c r="BK6" s="1">
-        <v>1684.810000</v>
+        <v>1684.81</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1052.620000</v>
+        <v>-1052.6199999999999</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>50909.982705</v>
+        <v>50909.982705000002</v>
       </c>
       <c r="BO6" s="1">
         <v>14.141662</v>
       </c>
       <c r="BP6" s="1">
-        <v>1979.970000</v>
+        <v>1979.97</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1817.240000</v>
+        <v>-1817.24</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>50920.484003</v>
+        <v>50920.484002999998</v>
       </c>
       <c r="BT6" s="1">
         <v>14.144579</v>
       </c>
       <c r="BU6" s="1">
-        <v>2366.950000</v>
+        <v>2366.9499999999998</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2696.100000</v>
+        <v>-2696.1</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>50931.269539</v>
+        <v>50931.269539000001</v>
       </c>
       <c r="BY6" s="1">
         <v>14.147575</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2851.250000</v>
+        <v>2851.25</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3658.980000</v>
+        <v>-3658.98</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>50942.615525</v>
+        <v>50942.615525000001</v>
       </c>
       <c r="CD6" s="1">
         <v>14.150727</v>
       </c>
       <c r="CE6" s="1">
-        <v>4257.710000</v>
+        <v>4257.71</v>
       </c>
       <c r="CF6" s="1">
-        <v>-5963.060000</v>
+        <v>-5963.06</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>50772.092904</v>
+        <v>50772.092903999997</v>
       </c>
       <c r="B7" s="1">
-        <v>14.103359</v>
+        <v>14.103358999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>1243.770000</v>
+        <v>1243.77</v>
       </c>
       <c r="D7" s="1">
-        <v>-305.090000</v>
+        <v>-305.08999999999997</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>50782.491529</v>
+        <v>50782.491528999999</v>
       </c>
       <c r="G7" s="1">
-        <v>14.106248</v>
+        <v>14.106248000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>1269.060000</v>
+        <v>1269.06</v>
       </c>
       <c r="I7" s="1">
-        <v>-262.812000</v>
+        <v>-262.81200000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
         <v>50792.678859</v>
       </c>
       <c r="L7" s="1">
-        <v>14.109077</v>
+        <v>14.109076999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>1303.900000</v>
+        <v>1303.9000000000001</v>
       </c>
       <c r="N7" s="1">
-        <v>-201.360000</v>
+        <v>-201.36</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>50802.896447</v>
+        <v>50802.896446999999</v>
       </c>
       <c r="Q7" s="1">
-        <v>14.111916</v>
+        <v>14.111916000000001</v>
       </c>
       <c r="R7" s="1">
-        <v>1315.510000</v>
+        <v>1315.51</v>
       </c>
       <c r="S7" s="1">
-        <v>-183.251000</v>
+        <v>-183.251</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>50813.138861</v>
+        <v>50813.138860999999</v>
       </c>
       <c r="V7" s="1">
         <v>14.114761</v>
       </c>
       <c r="W7" s="1">
-        <v>1328.330000</v>
+        <v>1328.33</v>
       </c>
       <c r="X7" s="1">
-        <v>-169.922000</v>
+        <v>-169.922</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
         <v>50823.627731</v>
       </c>
       <c r="AA7" s="1">
-        <v>14.117674</v>
+        <v>14.117673999999999</v>
       </c>
       <c r="AB7" s="1">
-        <v>1345.430000</v>
+        <v>1345.43</v>
       </c>
       <c r="AC7" s="1">
-        <v>-167.867000</v>
+        <v>-167.86699999999999</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>50833.837381</v>
+        <v>50833.837380999998</v>
       </c>
       <c r="AF7" s="1">
-        <v>14.120510</v>
+        <v>14.120509999999999</v>
       </c>
       <c r="AG7" s="1">
-        <v>1358.040000</v>
+        <v>1358.04</v>
       </c>
       <c r="AH7" s="1">
-        <v>-177.694000</v>
+        <v>-177.69399999999999</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>50844.004377</v>
+        <v>50844.004376999997</v>
       </c>
       <c r="AK7" s="1">
-        <v>14.123335</v>
+        <v>14.123335000000001</v>
       </c>
       <c r="AL7" s="1">
-        <v>1378.600000</v>
+        <v>1378.6</v>
       </c>
       <c r="AM7" s="1">
-        <v>-207.725000</v>
+        <v>-207.72499999999999</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>50855.007133</v>
+        <v>50855.007132999999</v>
       </c>
       <c r="AP7" s="1">
         <v>14.126391</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1400.250000</v>
+        <v>1400.25</v>
       </c>
       <c r="AR7" s="1">
-        <v>-251.576000</v>
+        <v>-251.57599999999999</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>50865.999962</v>
+        <v>50865.999962000002</v>
       </c>
       <c r="AU7" s="1">
-        <v>14.129444</v>
+        <v>14.129443999999999</v>
       </c>
       <c r="AV7" s="1">
-        <v>1424.870000</v>
+        <v>1424.87</v>
       </c>
       <c r="AW7" s="1">
-        <v>-311.408000</v>
+        <v>-311.40800000000002</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>50877.758155</v>
+        <v>50877.758155000003</v>
       </c>
       <c r="AZ7" s="1">
         <v>14.132711</v>
       </c>
       <c r="BA7" s="1">
-        <v>1444.350000</v>
+        <v>1444.35</v>
       </c>
       <c r="BB7" s="1">
-        <v>-363.379000</v>
+        <v>-363.37900000000002</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>50888.826845</v>
+        <v>50888.826845000003</v>
       </c>
       <c r="BE7" s="1">
         <v>14.135785</v>
       </c>
       <c r="BF7" s="1">
-        <v>1529.990000</v>
+        <v>1529.99</v>
       </c>
       <c r="BG7" s="1">
-        <v>-610.472000</v>
+        <v>-610.47199999999998</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>50899.586100</v>
+        <v>50899.5861</v>
       </c>
       <c r="BJ7" s="1">
         <v>14.138774</v>
       </c>
       <c r="BK7" s="1">
-        <v>1684.870000</v>
+        <v>1684.87</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1052.670000</v>
+        <v>-1052.67</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>50910.406784</v>
+        <v>50910.406783999999</v>
       </c>
       <c r="BO7" s="1">
-        <v>14.141780</v>
+        <v>14.141780000000001</v>
       </c>
       <c r="BP7" s="1">
-        <v>1979.880000</v>
+        <v>1979.88</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1817.170000</v>
+        <v>-1817.17</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>50920.895683</v>
+        <v>50920.895683000002</v>
       </c>
       <c r="BT7" s="1">
         <v>14.144693</v>
       </c>
       <c r="BU7" s="1">
-        <v>2366.890000</v>
+        <v>2366.89</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2696.200000</v>
+        <v>-2696.2</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>50931.726409</v>
+        <v>50931.726409000003</v>
       </c>
       <c r="BY7" s="1">
-        <v>14.147702</v>
+        <v>14.147702000000001</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2850.520000</v>
+        <v>2850.52</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3658.380000</v>
+        <v>-3658.38</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
         <v>50943.145718</v>
@@ -2006,709 +2422,709 @@
         <v>14.150874</v>
       </c>
       <c r="CE7" s="1">
-        <v>4261.930000</v>
+        <v>4261.93</v>
       </c>
       <c r="CF7" s="1">
-        <v>-5977.870000</v>
+        <v>-5977.87</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>50772.434679</v>
+        <v>50772.434678999998</v>
       </c>
       <c r="B8" s="1">
-        <v>14.103454</v>
+        <v>14.103453999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>1243.460000</v>
+        <v>1243.46</v>
       </c>
       <c r="D8" s="1">
-        <v>-304.985000</v>
+        <v>-304.98500000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>50782.835752</v>
+        <v>50782.835751999999</v>
       </c>
       <c r="G8" s="1">
-        <v>14.106343</v>
+        <v>14.106343000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>1269.270000</v>
+        <v>1269.27</v>
       </c>
       <c r="I8" s="1">
-        <v>-263.203000</v>
+        <v>-263.20299999999997</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>50793.023115</v>
+        <v>50793.023115000004</v>
       </c>
       <c r="L8" s="1">
         <v>14.109173</v>
       </c>
       <c r="M8" s="1">
-        <v>1303.580000</v>
+        <v>1303.58</v>
       </c>
       <c r="N8" s="1">
-        <v>-201.362000</v>
+        <v>-201.36199999999999</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>50803.593324</v>
+        <v>50803.593324000001</v>
       </c>
       <c r="Q8" s="1">
         <v>14.112109</v>
       </c>
       <c r="R8" s="1">
-        <v>1315.480000</v>
+        <v>1315.48</v>
       </c>
       <c r="S8" s="1">
-        <v>-183.291000</v>
+        <v>-183.291</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>50813.828767</v>
+        <v>50813.828766999999</v>
       </c>
       <c r="V8" s="1">
-        <v>14.114952</v>
+        <v>14.114952000000001</v>
       </c>
       <c r="W8" s="1">
-        <v>1328.380000</v>
+        <v>1328.38</v>
       </c>
       <c r="X8" s="1">
-        <v>-170.016000</v>
+        <v>-170.01599999999999</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>50823.976418</v>
+        <v>50823.976417999998</v>
       </c>
       <c r="AA8" s="1">
-        <v>14.117771</v>
+        <v>14.117770999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>1345.280000</v>
+        <v>1345.28</v>
       </c>
       <c r="AC8" s="1">
-        <v>-167.875000</v>
+        <v>-167.875</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>50834.180613</v>
+        <v>50834.180612999997</v>
       </c>
       <c r="AF8" s="1">
         <v>14.120606</v>
       </c>
       <c r="AG8" s="1">
-        <v>1358.120000</v>
+        <v>1358.12</v>
       </c>
       <c r="AH8" s="1">
-        <v>-177.724000</v>
+        <v>-177.72399999999999</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>50844.350583</v>
+        <v>50844.350582999999</v>
       </c>
       <c r="AK8" s="1">
         <v>14.123431</v>
       </c>
       <c r="AL8" s="1">
-        <v>1378.620000</v>
+        <v>1378.62</v>
       </c>
       <c r="AM8" s="1">
-        <v>-207.699000</v>
+        <v>-207.69900000000001</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>50855.675277</v>
+        <v>50855.675277000002</v>
       </c>
       <c r="AP8" s="1">
         <v>14.126576</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1400.260000</v>
+        <v>1400.26</v>
       </c>
       <c r="AR8" s="1">
-        <v>-251.558000</v>
+        <v>-251.55799999999999</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>50866.672539</v>
+        <v>50866.672538999999</v>
       </c>
       <c r="AU8" s="1">
         <v>14.129631</v>
       </c>
       <c r="AV8" s="1">
-        <v>1424.850000</v>
+        <v>1424.85</v>
       </c>
       <c r="AW8" s="1">
-        <v>-311.394000</v>
+        <v>-311.39400000000001</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>50878.205515</v>
+        <v>50878.205515000001</v>
       </c>
       <c r="AZ8" s="1">
         <v>14.132835</v>
       </c>
       <c r="BA8" s="1">
-        <v>1444.350000</v>
+        <v>1444.35</v>
       </c>
       <c r="BB8" s="1">
-        <v>-363.333000</v>
+        <v>-363.33300000000003</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>50889.188459</v>
+        <v>50889.188458999997</v>
       </c>
       <c r="BE8" s="1">
-        <v>14.135886</v>
+        <v>14.135885999999999</v>
       </c>
       <c r="BF8" s="1">
-        <v>1529.970000</v>
+        <v>1529.97</v>
       </c>
       <c r="BG8" s="1">
-        <v>-610.438000</v>
+        <v>-610.43799999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>50899.950125</v>
+        <v>50899.950125000003</v>
       </c>
       <c r="BJ8" s="1">
-        <v>14.138875</v>
+        <v>14.138875000000001</v>
       </c>
       <c r="BK8" s="1">
-        <v>1684.850000</v>
+        <v>1684.85</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1052.570000</v>
+        <v>-1052.57</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>50910.803599</v>
+        <v>50910.803598999999</v>
       </c>
       <c r="BO8" s="1">
-        <v>14.141890</v>
+        <v>14.14189</v>
       </c>
       <c r="BP8" s="1">
-        <v>1980.080000</v>
+        <v>1980.08</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1817.230000</v>
+        <v>-1817.23</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>50921.312853</v>
+        <v>50921.312853000003</v>
       </c>
       <c r="BT8" s="1">
         <v>14.144809</v>
       </c>
       <c r="BU8" s="1">
-        <v>2366.550000</v>
+        <v>2366.5500000000002</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2695.910000</v>
+        <v>-2695.91</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>50932.173716</v>
+        <v>50932.173715999998</v>
       </c>
       <c r="BY8" s="1">
         <v>14.147826</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2850.620000</v>
+        <v>2850.62</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3658.420000</v>
+        <v>-3658.42</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>50943.663541</v>
+        <v>50943.663541000002</v>
       </c>
       <c r="CD8" s="1">
-        <v>14.151018</v>
+        <v>14.151018000000001</v>
       </c>
       <c r="CE8" s="1">
-        <v>4278.150000</v>
+        <v>4278.1499999999996</v>
       </c>
       <c r="CF8" s="1">
-        <v>-5970.450000</v>
+        <v>-5970.45</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>50772.779861</v>
+        <v>50772.779861000003</v>
       </c>
       <c r="B9" s="1">
-        <v>14.103550</v>
+        <v>14.10355</v>
       </c>
       <c r="C9" s="1">
-        <v>1243.500000</v>
+        <v>1243.5</v>
       </c>
       <c r="D9" s="1">
-        <v>-304.960000</v>
+        <v>-304.95999999999998</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>50783.523208</v>
+        <v>50783.523207999999</v>
       </c>
       <c r="G9" s="1">
         <v>14.106534</v>
       </c>
       <c r="H9" s="1">
-        <v>1269.000000</v>
+        <v>1269</v>
       </c>
       <c r="I9" s="1">
-        <v>-264.225000</v>
+        <v>-264.22500000000002</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>50793.716986</v>
+        <v>50793.716985999999</v>
       </c>
       <c r="L9" s="1">
         <v>14.109366</v>
       </c>
       <c r="M9" s="1">
-        <v>1303.880000</v>
+        <v>1303.8800000000001</v>
       </c>
       <c r="N9" s="1">
-        <v>-201.211000</v>
+        <v>-201.21100000000001</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>50803.943004</v>
+        <v>50803.943004000001</v>
       </c>
       <c r="Q9" s="1">
         <v>14.112206</v>
       </c>
       <c r="R9" s="1">
-        <v>1315.430000</v>
+        <v>1315.43</v>
       </c>
       <c r="S9" s="1">
-        <v>-183.333000</v>
+        <v>-183.333</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>50814.173984</v>
+        <v>50814.173984000001</v>
       </c>
       <c r="V9" s="1">
         <v>14.115048</v>
       </c>
       <c r="W9" s="1">
-        <v>1328.390000</v>
+        <v>1328.39</v>
       </c>
       <c r="X9" s="1">
-        <v>-169.848000</v>
+        <v>-169.84800000000001</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>50824.326625</v>
+        <v>50824.326625000002</v>
       </c>
       <c r="AA9" s="1">
-        <v>14.117869</v>
+        <v>14.117869000000001</v>
       </c>
       <c r="AB9" s="1">
-        <v>1345.340000</v>
+        <v>1345.34</v>
       </c>
       <c r="AC9" s="1">
-        <v>-167.889000</v>
+        <v>-167.88900000000001</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>50834.835828</v>
+        <v>50834.835828000003</v>
       </c>
       <c r="AF9" s="1">
-        <v>14.120788</v>
+        <v>14.120787999999999</v>
       </c>
       <c r="AG9" s="1">
-        <v>1358.150000</v>
+        <v>1358.15</v>
       </c>
       <c r="AH9" s="1">
-        <v>-177.740000</v>
+        <v>-177.74</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>50845.008774</v>
+        <v>50845.008774000002</v>
       </c>
       <c r="AK9" s="1">
         <v>14.123614</v>
       </c>
       <c r="AL9" s="1">
-        <v>1378.580000</v>
+        <v>1378.58</v>
       </c>
       <c r="AM9" s="1">
-        <v>-207.735000</v>
+        <v>-207.73500000000001</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>50856.088436</v>
+        <v>50856.088435999998</v>
       </c>
       <c r="AP9" s="1">
-        <v>14.126691</v>
+        <v>14.126690999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1400.240000</v>
+        <v>1400.24</v>
       </c>
       <c r="AR9" s="1">
-        <v>-251.580000</v>
+        <v>-251.58</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>50867.093640</v>
+        <v>50867.093639999999</v>
       </c>
       <c r="AU9" s="1">
-        <v>14.129748</v>
+        <v>14.129747999999999</v>
       </c>
       <c r="AV9" s="1">
-        <v>1424.860000</v>
+        <v>1424.86</v>
       </c>
       <c r="AW9" s="1">
-        <v>-311.393000</v>
+        <v>-311.39299999999997</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>50878.566602</v>
+        <v>50878.566601999999</v>
       </c>
       <c r="AZ9" s="1">
         <v>14.132935</v>
       </c>
       <c r="BA9" s="1">
-        <v>1444.360000</v>
+        <v>1444.36</v>
       </c>
       <c r="BB9" s="1">
-        <v>-363.338000</v>
+        <v>-363.33800000000002</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>50889.549515</v>
+        <v>50889.549514999999</v>
       </c>
       <c r="BE9" s="1">
-        <v>14.135986</v>
+        <v>14.135986000000001</v>
       </c>
       <c r="BF9" s="1">
-        <v>1529.970000</v>
+        <v>1529.97</v>
       </c>
       <c r="BG9" s="1">
-        <v>-610.431000</v>
+        <v>-610.43100000000004</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>50900.322127</v>
+        <v>50900.322126999999</v>
       </c>
       <c r="BJ9" s="1">
         <v>14.138978</v>
       </c>
       <c r="BK9" s="1">
-        <v>1684.860000</v>
+        <v>1684.86</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1052.630000</v>
+        <v>-1052.6300000000001</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>50911.236096</v>
+        <v>50911.236096000001</v>
       </c>
       <c r="BO9" s="1">
-        <v>14.142010</v>
+        <v>14.142010000000001</v>
       </c>
       <c r="BP9" s="1">
-        <v>1979.980000</v>
+        <v>1979.98</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1817.180000</v>
+        <v>-1817.18</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>50921.727474</v>
+        <v>50921.727473999999</v>
       </c>
       <c r="BT9" s="1">
         <v>14.144924</v>
       </c>
       <c r="BU9" s="1">
-        <v>2366.620000</v>
+        <v>2366.62</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2696.150000</v>
+        <v>-2696.15</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
         <v>50932.596803</v>
       </c>
       <c r="BY9" s="1">
-        <v>14.147944</v>
+        <v>14.147944000000001</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2850.640000</v>
+        <v>2850.64</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3659.010000</v>
+        <v>-3659.01</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>50944.178915</v>
+        <v>50944.178914999997</v>
       </c>
       <c r="CD9" s="1">
         <v>14.151161</v>
       </c>
       <c r="CE9" s="1">
-        <v>4267.320000</v>
+        <v>4267.32</v>
       </c>
       <c r="CF9" s="1">
-        <v>-5955.890000</v>
+        <v>-5955.89</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>50773.457275</v>
+        <v>50773.457275000001</v>
       </c>
       <c r="B10" s="1">
         <v>14.103738</v>
       </c>
       <c r="C10" s="1">
-        <v>1243.720000</v>
+        <v>1243.72</v>
       </c>
       <c r="D10" s="1">
-        <v>-305.204000</v>
+        <v>-305.20400000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>50783.868424</v>
       </c>
       <c r="G10" s="1">
-        <v>14.106630</v>
+        <v>14.106629999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>1268.850000</v>
+        <v>1268.8499999999999</v>
       </c>
       <c r="I10" s="1">
-        <v>-263.253000</v>
+        <v>-263.25299999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>50794.059227</v>
+        <v>50794.059226999998</v>
       </c>
       <c r="L10" s="1">
         <v>14.109461</v>
       </c>
       <c r="M10" s="1">
-        <v>1303.970000</v>
+        <v>1303.97</v>
       </c>
       <c r="N10" s="1">
-        <v>-201.350000</v>
+        <v>-201.35</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>50804.290700</v>
+        <v>50804.290699999998</v>
       </c>
       <c r="Q10" s="1">
-        <v>14.112303</v>
+        <v>14.112303000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>1315.420000</v>
+        <v>1315.42</v>
       </c>
       <c r="S10" s="1">
-        <v>-183.232000</v>
+        <v>-183.232</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>50814.518736</v>
+        <v>50814.518735999998</v>
       </c>
       <c r="V10" s="1">
-        <v>14.115144</v>
+        <v>14.115144000000001</v>
       </c>
       <c r="W10" s="1">
-        <v>1328.360000</v>
+        <v>1328.36</v>
       </c>
       <c r="X10" s="1">
-        <v>-169.915000</v>
+        <v>-169.91499999999999</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>50824.976384</v>
+        <v>50824.976384000001</v>
       </c>
       <c r="AA10" s="1">
-        <v>14.118049</v>
+        <v>14.118048999999999</v>
       </c>
       <c r="AB10" s="1">
-        <v>1345.350000</v>
+        <v>1345.35</v>
       </c>
       <c r="AC10" s="1">
-        <v>-167.957000</v>
+        <v>-167.95699999999999</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>50835.216260</v>
+        <v>50835.216260000001</v>
       </c>
       <c r="AF10" s="1">
-        <v>14.120893</v>
+        <v>14.120893000000001</v>
       </c>
       <c r="AG10" s="1">
-        <v>1358.150000</v>
+        <v>1358.15</v>
       </c>
       <c r="AH10" s="1">
-        <v>-177.816000</v>
+        <v>-177.816</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>50845.396646</v>
+        <v>50845.396646000001</v>
       </c>
       <c r="AK10" s="1">
         <v>14.123721</v>
       </c>
       <c r="AL10" s="1">
-        <v>1378.610000</v>
+        <v>1378.61</v>
       </c>
       <c r="AM10" s="1">
-        <v>-207.749000</v>
+        <v>-207.749</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>50856.473303</v>
+        <v>50856.473302999999</v>
       </c>
       <c r="AP10" s="1">
-        <v>14.126798</v>
+        <v>14.126798000000001</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1400.310000</v>
+        <v>1400.31</v>
       </c>
       <c r="AR10" s="1">
-        <v>-251.526000</v>
+        <v>-251.52600000000001</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>50867.492425</v>
+        <v>50867.492424999997</v>
       </c>
       <c r="AU10" s="1">
         <v>14.129859</v>
       </c>
       <c r="AV10" s="1">
-        <v>1424.840000</v>
+        <v>1424.84</v>
       </c>
       <c r="AW10" s="1">
-        <v>-311.408000</v>
+        <v>-311.40800000000002</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>50878.922234</v>
+        <v>50878.922233999998</v>
       </c>
       <c r="AZ10" s="1">
         <v>14.133034</v>
       </c>
       <c r="BA10" s="1">
-        <v>1444.320000</v>
+        <v>1444.32</v>
       </c>
       <c r="BB10" s="1">
-        <v>-363.358000</v>
+        <v>-363.358</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>50889.972107</v>
+        <v>50889.972107000001</v>
       </c>
       <c r="BE10" s="1">
         <v>14.136103</v>
       </c>
       <c r="BF10" s="1">
-        <v>1529.960000</v>
+        <v>1529.96</v>
       </c>
       <c r="BG10" s="1">
-        <v>-610.438000</v>
+        <v>-610.43799999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
         <v>50900.749677</v>
@@ -2717,58 +3133,58 @@
         <v>14.139097</v>
       </c>
       <c r="BK10" s="1">
-        <v>1684.810000</v>
+        <v>1684.81</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1052.590000</v>
+        <v>-1052.5899999999999</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
         <v>50911.622014</v>
       </c>
       <c r="BO10" s="1">
-        <v>14.142117</v>
+        <v>14.142117000000001</v>
       </c>
       <c r="BP10" s="1">
-        <v>1979.960000</v>
+        <v>1979.96</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1817.180000</v>
+        <v>-1817.18</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>50922.138160</v>
+        <v>50922.138160000002</v>
       </c>
       <c r="BT10" s="1">
         <v>14.145038</v>
       </c>
       <c r="BU10" s="1">
-        <v>2366.230000</v>
+        <v>2366.23</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2695.910000</v>
+        <v>-2695.91</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>50933.018402</v>
+        <v>50933.018402000002</v>
       </c>
       <c r="BY10" s="1">
         <v>14.148061</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2851.340000</v>
+        <v>2851.34</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3658.700000</v>
+        <v>-3658.7</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
         <v>50944.700674</v>
@@ -2777,120 +3193,120 @@
         <v>14.151306</v>
       </c>
       <c r="CE10" s="1">
-        <v>4270.880000</v>
+        <v>4270.88</v>
       </c>
       <c r="CF10" s="1">
-        <v>-5977.100000</v>
+        <v>-5977.1</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>50773.799139</v>
+        <v>50773.799139000002</v>
       </c>
       <c r="B11" s="1">
         <v>14.103833</v>
       </c>
       <c r="C11" s="1">
-        <v>1243.640000</v>
+        <v>1243.6400000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>-304.974000</v>
+        <v>-304.97399999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>50784.215126</v>
+        <v>50784.215126000003</v>
       </c>
       <c r="G11" s="1">
         <v>14.106726</v>
       </c>
       <c r="H11" s="1">
-        <v>1268.190000</v>
+        <v>1268.19</v>
       </c>
       <c r="I11" s="1">
-        <v>-263.510000</v>
+        <v>-263.51</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>50794.407914</v>
+        <v>50794.407914000003</v>
       </c>
       <c r="L11" s="1">
         <v>14.109558</v>
       </c>
       <c r="M11" s="1">
-        <v>1303.730000</v>
+        <v>1303.73</v>
       </c>
       <c r="N11" s="1">
-        <v>-201.377000</v>
+        <v>-201.37700000000001</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>50804.944459</v>
+        <v>50804.944458999998</v>
       </c>
       <c r="Q11" s="1">
         <v>14.112485</v>
       </c>
       <c r="R11" s="1">
-        <v>1315.470000</v>
+        <v>1315.47</v>
       </c>
       <c r="S11" s="1">
-        <v>-183.252000</v>
+        <v>-183.25200000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>50815.173454</v>
+        <v>50815.173454000003</v>
       </c>
       <c r="V11" s="1">
         <v>14.115326</v>
       </c>
       <c r="W11" s="1">
-        <v>1328.340000</v>
+        <v>1328.34</v>
       </c>
       <c r="X11" s="1">
-        <v>-170.049000</v>
+        <v>-170.04900000000001</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>50825.371201</v>
+        <v>50825.371201000002</v>
       </c>
       <c r="AA11" s="1">
         <v>14.118159</v>
       </c>
       <c r="AB11" s="1">
-        <v>1345.280000</v>
+        <v>1345.28</v>
       </c>
       <c r="AC11" s="1">
-        <v>-167.897000</v>
+        <v>-167.89699999999999</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>50835.560484</v>
+        <v>50835.560484000001</v>
       </c>
       <c r="AF11" s="1">
         <v>14.120989</v>
       </c>
       <c r="AG11" s="1">
-        <v>1358.080000</v>
+        <v>1358.08</v>
       </c>
       <c r="AH11" s="1">
-        <v>-177.661000</v>
+        <v>-177.661</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
         <v>50845.745829</v>
@@ -2899,557 +3315,557 @@
         <v>14.123818</v>
       </c>
       <c r="AL11" s="1">
-        <v>1378.600000</v>
+        <v>1378.6</v>
       </c>
       <c r="AM11" s="1">
-        <v>-207.717000</v>
+        <v>-207.71700000000001</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>50856.834886</v>
+        <v>50856.834885999997</v>
       </c>
       <c r="AP11" s="1">
         <v>14.126899</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1400.280000</v>
+        <v>1400.28</v>
       </c>
       <c r="AR11" s="1">
-        <v>-251.569000</v>
+        <v>-251.56899999999999</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>50868.144665</v>
       </c>
       <c r="AU11" s="1">
-        <v>14.130040</v>
+        <v>14.130039999999999</v>
       </c>
       <c r="AV11" s="1">
-        <v>1424.880000</v>
+        <v>1424.88</v>
       </c>
       <c r="AW11" s="1">
-        <v>-311.410000</v>
+        <v>-311.41000000000003</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>50879.329450</v>
+        <v>50879.329449999997</v>
       </c>
       <c r="AZ11" s="1">
-        <v>14.133147</v>
+        <v>14.133146999999999</v>
       </c>
       <c r="BA11" s="1">
-        <v>1444.350000</v>
+        <v>1444.35</v>
       </c>
       <c r="BB11" s="1">
-        <v>-363.357000</v>
+        <v>-363.35700000000003</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>50890.273179</v>
+        <v>50890.273179000003</v>
       </c>
       <c r="BE11" s="1">
         <v>14.136187</v>
       </c>
       <c r="BF11" s="1">
-        <v>1529.990000</v>
+        <v>1529.99</v>
       </c>
       <c r="BG11" s="1">
-        <v>-610.458000</v>
+        <v>-610.45799999999997</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>50901.091456</v>
+        <v>50901.091456000002</v>
       </c>
       <c r="BJ11" s="1">
         <v>14.139192</v>
       </c>
       <c r="BK11" s="1">
-        <v>1684.760000</v>
+        <v>1684.76</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1052.650000</v>
+        <v>-1052.6500000000001</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>50912.039647</v>
+        <v>50912.039646999998</v>
       </c>
       <c r="BO11" s="1">
-        <v>14.142233</v>
+        <v>14.142232999999999</v>
       </c>
       <c r="BP11" s="1">
-        <v>1979.800000</v>
+        <v>1979.8</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1817.170000</v>
+        <v>-1817.17</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>50922.555791</v>
+        <v>50922.555790999999</v>
       </c>
       <c r="BT11" s="1">
         <v>14.145154</v>
       </c>
       <c r="BU11" s="1">
-        <v>2366.080000</v>
+        <v>2366.08</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2696.200000</v>
+        <v>-2696.2</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>50933.444961</v>
+        <v>50933.444961000001</v>
       </c>
       <c r="BY11" s="1">
-        <v>14.148179</v>
+        <v>14.148179000000001</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2850.680000</v>
+        <v>2850.68</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3658.060000</v>
+        <v>-3658.06</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>50945.237347</v>
+        <v>50945.237347000002</v>
       </c>
       <c r="CD11" s="1">
         <v>14.151455</v>
       </c>
       <c r="CE11" s="1">
-        <v>4268.040000</v>
+        <v>4268.04</v>
       </c>
       <c r="CF11" s="1">
-        <v>-5959.040000</v>
+        <v>-5959.04</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>50774.143395</v>
+        <v>50774.143394999999</v>
       </c>
       <c r="B12" s="1">
-        <v>14.103929</v>
+        <v>14.103929000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>1243.480000</v>
+        <v>1243.48</v>
       </c>
       <c r="D12" s="1">
-        <v>-305.229000</v>
+        <v>-305.22899999999998</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>50784.871830</v>
+        <v>50784.871829999996</v>
       </c>
       <c r="G12" s="1">
         <v>14.106909</v>
       </c>
       <c r="H12" s="1">
-        <v>1269.080000</v>
+        <v>1269.08</v>
       </c>
       <c r="I12" s="1">
-        <v>-262.441000</v>
+        <v>-262.44099999999997</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>50795.062137</v>
+        <v>50795.062137000001</v>
       </c>
       <c r="L12" s="1">
-        <v>14.109739</v>
+        <v>14.109738999999999</v>
       </c>
       <c r="M12" s="1">
-        <v>1303.890000</v>
+        <v>1303.8900000000001</v>
       </c>
       <c r="N12" s="1">
-        <v>-201.230000</v>
+        <v>-201.23</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>50805.340730</v>
+        <v>50805.340730000004</v>
       </c>
       <c r="Q12" s="1">
-        <v>14.112595</v>
+        <v>14.112595000000001</v>
       </c>
       <c r="R12" s="1">
-        <v>1315.540000</v>
+        <v>1315.54</v>
       </c>
       <c r="S12" s="1">
-        <v>-183.191000</v>
+        <v>-183.191</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>50815.549886</v>
+        <v>50815.549886000001</v>
       </c>
       <c r="V12" s="1">
-        <v>14.115431</v>
+        <v>14.115430999999999</v>
       </c>
       <c r="W12" s="1">
-        <v>1328.320000</v>
+        <v>1328.32</v>
       </c>
       <c r="X12" s="1">
-        <v>-170.077000</v>
+        <v>-170.077</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>50825.721344</v>
+        <v>50825.721343999998</v>
       </c>
       <c r="AA12" s="1">
-        <v>14.118256</v>
+        <v>14.118256000000001</v>
       </c>
       <c r="AB12" s="1">
-        <v>1345.240000</v>
+        <v>1345.24</v>
       </c>
       <c r="AC12" s="1">
-        <v>-167.845000</v>
+        <v>-167.845</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
         <v>50835.905735</v>
       </c>
       <c r="AF12" s="1">
-        <v>14.121085</v>
+        <v>14.121085000000001</v>
       </c>
       <c r="AG12" s="1">
-        <v>1358.110000</v>
+        <v>1358.11</v>
       </c>
       <c r="AH12" s="1">
-        <v>-177.722000</v>
+        <v>-177.72200000000001</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>50846.094022</v>
+        <v>50846.094021999997</v>
       </c>
       <c r="AK12" s="1">
         <v>14.123915</v>
       </c>
       <c r="AL12" s="1">
-        <v>1378.590000</v>
+        <v>1378.59</v>
       </c>
       <c r="AM12" s="1">
-        <v>-207.757000</v>
+        <v>-207.75700000000001</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>50857.243591</v>
+        <v>50857.243590999999</v>
       </c>
       <c r="AP12" s="1">
-        <v>14.127012</v>
+        <v>14.127012000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1400.270000</v>
+        <v>1400.27</v>
       </c>
       <c r="AR12" s="1">
-        <v>-251.556000</v>
+        <v>-251.55600000000001</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>50868.553869</v>
+        <v>50868.553869000003</v>
       </c>
       <c r="AU12" s="1">
-        <v>14.130154</v>
+        <v>14.130153999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>1424.870000</v>
+        <v>1424.87</v>
       </c>
       <c r="AW12" s="1">
-        <v>-311.425000</v>
+        <v>-311.42500000000001</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>50879.639972</v>
+        <v>50879.639971999997</v>
       </c>
       <c r="AZ12" s="1">
-        <v>14.133233</v>
+        <v>14.133233000000001</v>
       </c>
       <c r="BA12" s="1">
-        <v>1444.320000</v>
+        <v>1444.32</v>
       </c>
       <c r="BB12" s="1">
-        <v>-363.347000</v>
+        <v>-363.34699999999998</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>50890.631289</v>
+        <v>50890.631288999997</v>
       </c>
       <c r="BE12" s="1">
         <v>14.136286</v>
       </c>
       <c r="BF12" s="1">
-        <v>1530.000000</v>
+        <v>1530</v>
       </c>
       <c r="BG12" s="1">
-        <v>-610.441000</v>
+        <v>-610.44100000000003</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>50901.503595</v>
+        <v>50901.503595000002</v>
       </c>
       <c r="BJ12" s="1">
-        <v>14.139307</v>
+        <v>14.139307000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1684.840000</v>
+        <v>1684.84</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1052.470000</v>
+        <v>-1052.47</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>50912.439389</v>
+        <v>50912.439388999999</v>
       </c>
       <c r="BO12" s="1">
         <v>14.142344</v>
       </c>
       <c r="BP12" s="1">
-        <v>1979.900000</v>
+        <v>1979.9</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1817.060000</v>
+        <v>-1817.06</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>50922.994784</v>
+        <v>50922.994784000002</v>
       </c>
       <c r="BT12" s="1">
-        <v>14.145276</v>
+        <v>14.145276000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>2365.810000</v>
+        <v>2365.81</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2696.330000</v>
+        <v>-2696.33</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>50933.867095</v>
+        <v>50933.867095000001</v>
       </c>
       <c r="BY12" s="1">
         <v>14.148296</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2849.940000</v>
+        <v>2849.94</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3658.490000</v>
+        <v>-3658.49</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>50945.774018</v>
+        <v>50945.774017999996</v>
       </c>
       <c r="CD12" s="1">
-        <v>14.151604</v>
+        <v>14.151604000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>4256.220000</v>
+        <v>4256.22</v>
       </c>
       <c r="CF12" s="1">
-        <v>-5970.940000</v>
+        <v>-5970.94</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>50774.796099</v>
+        <v>50774.796098999999</v>
       </c>
       <c r="B13" s="1">
-        <v>14.104110</v>
+        <v>14.10411</v>
       </c>
       <c r="C13" s="1">
-        <v>1243.490000</v>
+        <v>1243.49</v>
       </c>
       <c r="D13" s="1">
-        <v>-305.378000</v>
+        <v>-305.37799999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>50785.247798</v>
+        <v>50785.247797999997</v>
       </c>
       <c r="G13" s="1">
         <v>14.107013</v>
       </c>
       <c r="H13" s="1">
-        <v>1268.840000</v>
+        <v>1268.8399999999999</v>
       </c>
       <c r="I13" s="1">
-        <v>-262.763000</v>
+        <v>-262.76299999999998</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
         <v>50795.444055</v>
       </c>
       <c r="L13" s="1">
-        <v>14.109846</v>
+        <v>14.109845999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>1303.850000</v>
+        <v>1303.8499999999999</v>
       </c>
       <c r="N13" s="1">
-        <v>-201.343000</v>
+        <v>-201.34299999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>50805.686443</v>
+        <v>50805.686442999999</v>
       </c>
       <c r="Q13" s="1">
         <v>14.112691</v>
       </c>
       <c r="R13" s="1">
-        <v>1315.550000</v>
+        <v>1315.55</v>
       </c>
       <c r="S13" s="1">
-        <v>-183.290000</v>
+        <v>-183.29</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>50815.895100</v>
+        <v>50815.895100000002</v>
       </c>
       <c r="V13" s="1">
-        <v>14.115526</v>
+        <v>14.115525999999999</v>
       </c>
       <c r="W13" s="1">
-        <v>1328.370000</v>
+        <v>1328.37</v>
       </c>
       <c r="X13" s="1">
-        <v>-169.701000</v>
+        <v>-169.70099999999999</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>50826.069218</v>
+        <v>50826.069217999997</v>
       </c>
       <c r="AA13" s="1">
-        <v>14.118353</v>
+        <v>14.118353000000001</v>
       </c>
       <c r="AB13" s="1">
-        <v>1345.320000</v>
+        <v>1345.32</v>
       </c>
       <c r="AC13" s="1">
-        <v>-167.759000</v>
+        <v>-167.75899999999999</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>50836.324856</v>
+        <v>50836.324855999999</v>
       </c>
       <c r="AF13" s="1">
-        <v>14.121201</v>
+        <v>14.121200999999999</v>
       </c>
       <c r="AG13" s="1">
-        <v>1358.110000</v>
+        <v>1358.11</v>
       </c>
       <c r="AH13" s="1">
-        <v>-177.849000</v>
+        <v>-177.84899999999999</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>50846.537941</v>
+        <v>50846.537941000002</v>
       </c>
       <c r="AK13" s="1">
-        <v>14.124038</v>
+        <v>14.124038000000001</v>
       </c>
       <c r="AL13" s="1">
-        <v>1378.610000</v>
+        <v>1378.61</v>
       </c>
       <c r="AM13" s="1">
-        <v>-207.704000</v>
+        <v>-207.70400000000001</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>50857.554087</v>
+        <v>50857.554086999997</v>
       </c>
       <c r="AP13" s="1">
         <v>14.127098</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1400.240000</v>
+        <v>1400.24</v>
       </c>
       <c r="AR13" s="1">
-        <v>-251.549000</v>
+        <v>-251.54900000000001</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>50868.943752</v>
+        <v>50868.943751999999</v>
       </c>
       <c r="AU13" s="1">
         <v>14.130262</v>
       </c>
       <c r="AV13" s="1">
-        <v>1424.840000</v>
+        <v>1424.84</v>
       </c>
       <c r="AW13" s="1">
-        <v>-311.394000</v>
+        <v>-311.39400000000001</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
         <v>50880.001033</v>
@@ -3458,106 +3874,106 @@
         <v>14.133334</v>
       </c>
       <c r="BA13" s="1">
-        <v>1444.370000</v>
+        <v>1444.37</v>
       </c>
       <c r="BB13" s="1">
-        <v>-363.370000</v>
+        <v>-363.37</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>50890.995387</v>
+        <v>50890.995387000003</v>
       </c>
       <c r="BE13" s="1">
         <v>14.136388</v>
       </c>
       <c r="BF13" s="1">
-        <v>1529.920000</v>
+        <v>1529.92</v>
       </c>
       <c r="BG13" s="1">
-        <v>-610.393000</v>
+        <v>-610.39300000000003</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>50902.227258</v>
+        <v>50902.227257999999</v>
       </c>
       <c r="BJ13" s="1">
-        <v>14.139508</v>
+        <v>14.139507999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>1684.660000</v>
+        <v>1684.66</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1052.500000</v>
+        <v>-1052.5</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>50912.862476</v>
+        <v>50912.862476000002</v>
       </c>
       <c r="BO13" s="1">
         <v>14.142462</v>
       </c>
       <c r="BP13" s="1">
-        <v>1979.700000</v>
+        <v>1979.7</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1817.160000</v>
+        <v>-1817.16</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>50923.423792</v>
+        <v>50923.423792000001</v>
       </c>
       <c r="BT13" s="1">
-        <v>14.145395</v>
+        <v>14.145395000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>2365.450000</v>
+        <v>2365.4499999999998</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2696.410000</v>
+        <v>-2696.41</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>50934.310976</v>
+        <v>50934.310976000001</v>
       </c>
       <c r="BY13" s="1">
-        <v>14.148420</v>
+        <v>14.14842</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2850.650000</v>
+        <v>2850.65</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3658.760000</v>
+        <v>-3658.76</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>50946.318128</v>
+        <v>50946.318127999999</v>
       </c>
       <c r="CD13" s="1">
         <v>14.151755</v>
       </c>
       <c r="CE13" s="1">
-        <v>4275.010000</v>
+        <v>4275.01</v>
       </c>
       <c r="CF13" s="1">
-        <v>-5967.900000</v>
+        <v>-5967.9</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
         <v>50775.166115</v>
       </c>
@@ -3565,193 +3981,193 @@
         <v>14.104213</v>
       </c>
       <c r="C14" s="1">
-        <v>1243.400000</v>
+        <v>1243.4000000000001</v>
       </c>
       <c r="D14" s="1">
-        <v>-305.067000</v>
+        <v>-305.06700000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>50785.595528</v>
+        <v>50785.595527999998</v>
       </c>
       <c r="G14" s="1">
-        <v>14.107110</v>
+        <v>14.10711</v>
       </c>
       <c r="H14" s="1">
-        <v>1268.660000</v>
+        <v>1268.6600000000001</v>
       </c>
       <c r="I14" s="1">
-        <v>-262.461000</v>
+        <v>-262.46100000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>50795.788280</v>
+        <v>50795.788280000001</v>
       </c>
       <c r="L14" s="1">
-        <v>14.109941</v>
+        <v>14.109940999999999</v>
       </c>
       <c r="M14" s="1">
-        <v>1303.660000</v>
+        <v>1303.6600000000001</v>
       </c>
       <c r="N14" s="1">
-        <v>-201.297000</v>
+        <v>-201.297</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>50806.037113</v>
+        <v>50806.037112999998</v>
       </c>
       <c r="Q14" s="1">
         <v>14.112788</v>
       </c>
       <c r="R14" s="1">
-        <v>1315.510000</v>
+        <v>1315.51</v>
       </c>
       <c r="S14" s="1">
-        <v>-183.321000</v>
+        <v>-183.321</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>50816.238369</v>
+        <v>50816.238368999999</v>
       </c>
       <c r="V14" s="1">
         <v>14.115622</v>
       </c>
       <c r="W14" s="1">
-        <v>1328.380000</v>
+        <v>1328.38</v>
       </c>
       <c r="X14" s="1">
-        <v>-169.951000</v>
+        <v>-169.95099999999999</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
         <v>50826.488694</v>
       </c>
       <c r="AA14" s="1">
-        <v>14.118469</v>
+        <v>14.118468999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>1345.220000</v>
+        <v>1345.22</v>
       </c>
       <c r="AC14" s="1">
-        <v>-168.120000</v>
+        <v>-168.12</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>50836.601089</v>
+        <v>50836.601089000003</v>
       </c>
       <c r="AF14" s="1">
         <v>14.121278</v>
       </c>
       <c r="AG14" s="1">
-        <v>1358.080000</v>
+        <v>1358.08</v>
       </c>
       <c r="AH14" s="1">
-        <v>-177.747000</v>
+        <v>-177.74700000000001</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>50846.798836</v>
+        <v>50846.798836000002</v>
       </c>
       <c r="AK14" s="1">
-        <v>14.124111</v>
+        <v>14.124110999999999</v>
       </c>
       <c r="AL14" s="1">
-        <v>1378.630000</v>
+        <v>1378.63</v>
       </c>
       <c r="AM14" s="1">
-        <v>-207.732000</v>
+        <v>-207.732</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>50857.913188</v>
+        <v>50857.913187999999</v>
       </c>
       <c r="AP14" s="1">
         <v>14.127198</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1400.270000</v>
+        <v>1400.27</v>
       </c>
       <c r="AR14" s="1">
-        <v>-251.541000</v>
+        <v>-251.541</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>50869.310791</v>
+        <v>50869.310791000004</v>
       </c>
       <c r="AU14" s="1">
         <v>14.130364</v>
       </c>
       <c r="AV14" s="1">
-        <v>1424.870000</v>
+        <v>1424.87</v>
       </c>
       <c r="AW14" s="1">
-        <v>-311.384000</v>
+        <v>-311.38400000000001</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>50880.358185</v>
+        <v>50880.358184999997</v>
       </c>
       <c r="AZ14" s="1">
         <v>14.133433</v>
       </c>
       <c r="BA14" s="1">
-        <v>1444.310000</v>
+        <v>1444.31</v>
       </c>
       <c r="BB14" s="1">
-        <v>-363.345000</v>
+        <v>-363.34500000000003</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>50891.716568</v>
+        <v>50891.716568000003</v>
       </c>
       <c r="BE14" s="1">
         <v>14.136588</v>
       </c>
       <c r="BF14" s="1">
-        <v>1529.990000</v>
+        <v>1529.99</v>
       </c>
       <c r="BG14" s="1">
-        <v>-610.408000</v>
+        <v>-610.40800000000002</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>50902.600746</v>
+        <v>50902.600745999996</v>
       </c>
       <c r="BJ14" s="1">
         <v>14.139611</v>
       </c>
       <c r="BK14" s="1">
-        <v>1684.760000</v>
+        <v>1684.76</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1052.610000</v>
+        <v>-1052.6099999999999</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
         <v>50913.256834</v>
@@ -3760,392 +4176,392 @@
         <v>14.142571</v>
       </c>
       <c r="BP14" s="1">
-        <v>1979.860000</v>
+        <v>1979.86</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1817.210000</v>
+        <v>-1817.21</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>50923.834479</v>
+        <v>50923.834478999997</v>
       </c>
       <c r="BT14" s="1">
-        <v>14.145510</v>
+        <v>14.14551</v>
       </c>
       <c r="BU14" s="1">
-        <v>2365.570000</v>
+        <v>2365.5700000000002</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2696.660000</v>
+        <v>-2696.66</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>50934.732079</v>
+        <v>50934.732079000001</v>
       </c>
       <c r="BY14" s="1">
-        <v>14.148537</v>
+        <v>14.148536999999999</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2850.580000</v>
+        <v>2850.58</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3658.050000</v>
+        <v>-3658.05</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>50947.164335</v>
+        <v>50947.164335000001</v>
       </c>
       <c r="CD14" s="1">
-        <v>14.151990</v>
+        <v>14.15199</v>
       </c>
       <c r="CE14" s="1">
-        <v>4261.210000</v>
+        <v>4261.21</v>
       </c>
       <c r="CF14" s="1">
-        <v>-5976.010000</v>
+        <v>-5976.01</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>50775.512321</v>
+        <v>50775.512321000002</v>
       </c>
       <c r="B15" s="1">
-        <v>14.104309</v>
+        <v>14.104309000000001</v>
       </c>
       <c r="C15" s="1">
-        <v>1243.710000</v>
+        <v>1243.71</v>
       </c>
       <c r="D15" s="1">
-        <v>-305.046000</v>
+        <v>-305.04599999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>50785.939547</v>
+        <v>50785.939547000002</v>
       </c>
       <c r="G15" s="1">
         <v>14.107205</v>
       </c>
       <c r="H15" s="1">
-        <v>1269.160000</v>
+        <v>1269.1600000000001</v>
       </c>
       <c r="I15" s="1">
-        <v>-263.973000</v>
+        <v>-263.97300000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>50796.132534</v>
+        <v>50796.132533999997</v>
       </c>
       <c r="L15" s="1">
         <v>14.110037</v>
       </c>
       <c r="M15" s="1">
-        <v>1303.620000</v>
+        <v>1303.6199999999999</v>
       </c>
       <c r="N15" s="1">
-        <v>-201.392000</v>
+        <v>-201.392</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>50806.461193</v>
+        <v>50806.461193000003</v>
       </c>
       <c r="Q15" s="1">
-        <v>14.112906</v>
+        <v>14.112906000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>1315.420000</v>
+        <v>1315.42</v>
       </c>
       <c r="S15" s="1">
-        <v>-183.170000</v>
+        <v>-183.17</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>50816.655963</v>
+        <v>50816.655962999997</v>
       </c>
       <c r="V15" s="1">
         <v>14.115738</v>
       </c>
       <c r="W15" s="1">
-        <v>1328.330000</v>
+        <v>1328.33</v>
       </c>
       <c r="X15" s="1">
-        <v>-169.700000</v>
+        <v>-169.7</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>50826.778846</v>
+        <v>50826.778846000001</v>
       </c>
       <c r="AA15" s="1">
-        <v>14.118550</v>
+        <v>14.118550000000001</v>
       </c>
       <c r="AB15" s="1">
-        <v>1345.370000</v>
+        <v>1345.37</v>
       </c>
       <c r="AC15" s="1">
-        <v>-168.008000</v>
+        <v>-168.00800000000001</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>50836.945349</v>
+        <v>50836.945349000001</v>
       </c>
       <c r="AF15" s="1">
-        <v>14.121374</v>
+        <v>14.121373999999999</v>
       </c>
       <c r="AG15" s="1">
-        <v>1358.040000</v>
+        <v>1358.04</v>
       </c>
       <c r="AH15" s="1">
-        <v>-177.676000</v>
+        <v>-177.67599999999999</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>50847.143556</v>
+        <v>50847.143556000003</v>
       </c>
       <c r="AK15" s="1">
         <v>14.124207</v>
       </c>
       <c r="AL15" s="1">
-        <v>1378.630000</v>
+        <v>1378.63</v>
       </c>
       <c r="AM15" s="1">
-        <v>-207.727000</v>
+        <v>-207.727</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>50858.273782</v>
+        <v>50858.273781999997</v>
       </c>
       <c r="AP15" s="1">
         <v>14.127298</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1400.250000</v>
+        <v>1400.25</v>
       </c>
       <c r="AR15" s="1">
-        <v>-251.545000</v>
+        <v>-251.54499999999999</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>50870.039381</v>
+        <v>50870.039381000002</v>
       </c>
       <c r="AU15" s="1">
         <v>14.130566</v>
       </c>
       <c r="AV15" s="1">
-        <v>1424.920000</v>
+        <v>1424.92</v>
       </c>
       <c r="AW15" s="1">
-        <v>-311.399000</v>
+        <v>-311.399</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>50881.084792</v>
+        <v>50881.084792000001</v>
       </c>
       <c r="AZ15" s="1">
         <v>14.133635</v>
       </c>
       <c r="BA15" s="1">
-        <v>1444.370000</v>
+        <v>1444.37</v>
       </c>
       <c r="BB15" s="1">
-        <v>-363.356000</v>
+        <v>-363.35599999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>50892.101433</v>
+        <v>50892.101433000003</v>
       </c>
       <c r="BE15" s="1">
         <v>14.136695</v>
       </c>
       <c r="BF15" s="1">
-        <v>1529.980000</v>
+        <v>1529.98</v>
       </c>
       <c r="BG15" s="1">
-        <v>-610.432000</v>
+        <v>-610.43200000000002</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
         <v>50902.999033</v>
       </c>
       <c r="BJ15" s="1">
-        <v>14.139722</v>
+        <v>14.139722000000001</v>
       </c>
       <c r="BK15" s="1">
-        <v>1684.920000</v>
+        <v>1684.92</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1052.460000</v>
+        <v>-1052.46</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>50913.678892</v>
+        <v>50913.678892000004</v>
       </c>
       <c r="BO15" s="1">
-        <v>14.142689</v>
+        <v>14.142689000000001</v>
       </c>
       <c r="BP15" s="1">
-        <v>1979.770000</v>
+        <v>1979.77</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1816.900000</v>
+        <v>-1816.9</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>50924.577156</v>
+        <v>50924.577155999999</v>
       </c>
       <c r="BT15" s="1">
         <v>14.145716</v>
       </c>
       <c r="BU15" s="1">
-        <v>2365.210000</v>
+        <v>2365.21</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2696.940000</v>
+        <v>-2696.94</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>50935.352575</v>
+        <v>50935.352574999997</v>
       </c>
       <c r="BY15" s="1">
         <v>14.148709</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2850.380000</v>
+        <v>2850.38</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3658.320000</v>
+        <v>-3658.32</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>50947.397424</v>
+        <v>50947.397424000003</v>
       </c>
       <c r="CD15" s="1">
-        <v>14.152055</v>
+        <v>14.152055000000001</v>
       </c>
       <c r="CE15" s="1">
-        <v>4258.410000</v>
+        <v>4258.41</v>
       </c>
       <c r="CF15" s="1">
-        <v>-5974.990000</v>
+        <v>-5974.99</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>50775.851091</v>
+        <v>50775.851090999997</v>
       </c>
       <c r="B16" s="1">
         <v>14.104403</v>
       </c>
       <c r="C16" s="1">
-        <v>1243.500000</v>
+        <v>1243.5</v>
       </c>
       <c r="D16" s="1">
-        <v>-304.919000</v>
+        <v>-304.91899999999998</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>50786.362309</v>
+        <v>50786.362308999996</v>
       </c>
       <c r="G16" s="1">
-        <v>14.107323</v>
+        <v>14.107322999999999</v>
       </c>
       <c r="H16" s="1">
-        <v>1269.160000</v>
+        <v>1269.1600000000001</v>
       </c>
       <c r="I16" s="1">
-        <v>-263.385000</v>
+        <v>-263.38499999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>50796.550662</v>
+        <v>50796.550662000001</v>
       </c>
       <c r="L16" s="1">
         <v>14.110153</v>
       </c>
       <c r="M16" s="1">
-        <v>1303.810000</v>
+        <v>1303.81</v>
       </c>
       <c r="N16" s="1">
-        <v>-201.438000</v>
+        <v>-201.43799999999999</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>50806.741434</v>
+        <v>50806.741434000003</v>
       </c>
       <c r="Q16" s="1">
-        <v>14.112984</v>
+        <v>14.112984000000001</v>
       </c>
       <c r="R16" s="1">
-        <v>1315.420000</v>
+        <v>1315.42</v>
       </c>
       <c r="S16" s="1">
-        <v>-183.200000</v>
+        <v>-183.2</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>50816.930749</v>
+        <v>50816.930748999999</v>
       </c>
       <c r="V16" s="1">
         <v>14.115814</v>
       </c>
       <c r="W16" s="1">
-        <v>1328.290000</v>
+        <v>1328.29</v>
       </c>
       <c r="X16" s="1">
-        <v>-169.728000</v>
+        <v>-169.72800000000001</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
         <v>50827.125021</v>
@@ -4154,210 +4570,210 @@
         <v>14.118646</v>
       </c>
       <c r="AB16" s="1">
-        <v>1345.380000</v>
+        <v>1345.38</v>
       </c>
       <c r="AC16" s="1">
-        <v>-167.933000</v>
+        <v>-167.93299999999999</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>50837.288545</v>
+        <v>50837.288545000003</v>
       </c>
       <c r="AF16" s="1">
-        <v>14.121469</v>
+        <v>14.121468999999999</v>
       </c>
       <c r="AG16" s="1">
-        <v>1358.030000</v>
+        <v>1358.03</v>
       </c>
       <c r="AH16" s="1">
-        <v>-177.752000</v>
+        <v>-177.75200000000001</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>50847.493763</v>
+        <v>50847.493762999999</v>
       </c>
       <c r="AK16" s="1">
         <v>14.124304</v>
       </c>
       <c r="AL16" s="1">
-        <v>1378.580000</v>
+        <v>1378.58</v>
       </c>
       <c r="AM16" s="1">
-        <v>-207.694000</v>
+        <v>-207.69399999999999</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>50858.992483</v>
+        <v>50858.992483000002</v>
       </c>
       <c r="AP16" s="1">
-        <v>14.127498</v>
+        <v>14.127497999999999</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1400.250000</v>
+        <v>1400.25</v>
       </c>
       <c r="AR16" s="1">
-        <v>-251.538000</v>
+        <v>-251.53800000000001</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>50870.405428</v>
+        <v>50870.405427999998</v>
       </c>
       <c r="AU16" s="1">
         <v>14.130668</v>
       </c>
       <c r="AV16" s="1">
-        <v>1424.940000</v>
+        <v>1424.94</v>
       </c>
       <c r="AW16" s="1">
-        <v>-311.430000</v>
+        <v>-311.43</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>50881.457783</v>
+        <v>50881.457782999998</v>
       </c>
       <c r="AZ16" s="1">
-        <v>14.133738</v>
+        <v>14.133737999999999</v>
       </c>
       <c r="BA16" s="1">
-        <v>1444.360000</v>
+        <v>1444.36</v>
       </c>
       <c r="BB16" s="1">
-        <v>-363.370000</v>
+        <v>-363.37</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>50892.461527</v>
+        <v>50892.461526999999</v>
       </c>
       <c r="BE16" s="1">
-        <v>14.136795</v>
+        <v>14.136794999999999</v>
       </c>
       <c r="BF16" s="1">
-        <v>1529.960000</v>
+        <v>1529.96</v>
       </c>
       <c r="BG16" s="1">
-        <v>-610.413000</v>
+        <v>-610.41300000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>50903.678901</v>
+        <v>50903.678900999999</v>
       </c>
       <c r="BJ16" s="1">
         <v>14.139911</v>
       </c>
       <c r="BK16" s="1">
-        <v>1684.870000</v>
+        <v>1684.87</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1052.440000</v>
+        <v>-1052.44</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>50914.381754</v>
+        <v>50914.381754000002</v>
       </c>
       <c r="BO16" s="1">
         <v>14.142884</v>
       </c>
       <c r="BP16" s="1">
-        <v>1979.820000</v>
+        <v>1979.82</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1817.150000</v>
+        <v>-1817.15</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>50924.693053</v>
+        <v>50924.693053000003</v>
       </c>
       <c r="BT16" s="1">
-        <v>14.145748</v>
+        <v>14.145747999999999</v>
       </c>
       <c r="BU16" s="1">
-        <v>2364.990000</v>
+        <v>2364.9899999999998</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2697.110000</v>
+        <v>-2697.11</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>50935.601071</v>
+        <v>50935.601070999997</v>
       </c>
       <c r="BY16" s="1">
         <v>14.148778</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2850.260000</v>
+        <v>2850.26</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3658.530000</v>
+        <v>-3658.53</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>50947.914256</v>
+        <v>50947.914255999996</v>
       </c>
       <c r="CD16" s="1">
         <v>14.152198</v>
       </c>
       <c r="CE16" s="1">
-        <v>4275.190000</v>
+        <v>4275.1899999999996</v>
       </c>
       <c r="CF16" s="1">
-        <v>-5968.710000</v>
+        <v>-5968.71</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>50776.273767</v>
+        <v>50776.273766999999</v>
       </c>
       <c r="B17" s="1">
-        <v>14.104520</v>
+        <v>14.104520000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>1243.730000</v>
+        <v>1243.73</v>
       </c>
       <c r="D17" s="1">
-        <v>-305.350000</v>
+        <v>-305.35000000000002</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>50786.643079</v>
+        <v>50786.643079000001</v>
       </c>
       <c r="G17" s="1">
-        <v>14.107401</v>
+        <v>14.107400999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>1268.320000</v>
+        <v>1268.32</v>
       </c>
       <c r="I17" s="1">
-        <v>-264.870000</v>
+        <v>-264.87</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>50796.848262</v>
@@ -4366,133 +4782,133 @@
         <v>14.110236</v>
       </c>
       <c r="M17" s="1">
-        <v>1304.010000</v>
+        <v>1304.01</v>
       </c>
       <c r="N17" s="1">
-        <v>-201.141000</v>
+        <v>-201.14099999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>50807.092105</v>
+        <v>50807.092105000003</v>
       </c>
       <c r="Q17" s="1">
-        <v>14.113081</v>
+        <v>14.113080999999999</v>
       </c>
       <c r="R17" s="1">
-        <v>1315.460000</v>
+        <v>1315.46</v>
       </c>
       <c r="S17" s="1">
-        <v>-183.164000</v>
+        <v>-183.16399999999999</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>50817.277946</v>
+        <v>50817.277946000002</v>
       </c>
       <c r="V17" s="1">
-        <v>14.115911</v>
+        <v>14.115911000000001</v>
       </c>
       <c r="W17" s="1">
-        <v>1328.460000</v>
+        <v>1328.46</v>
       </c>
       <c r="X17" s="1">
-        <v>-170.037000</v>
+        <v>-170.03700000000001</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>50827.473747</v>
+        <v>50827.473746999996</v>
       </c>
       <c r="AA17" s="1">
         <v>14.118743</v>
       </c>
       <c r="AB17" s="1">
-        <v>1345.380000</v>
+        <v>1345.38</v>
       </c>
       <c r="AC17" s="1">
-        <v>-168.025000</v>
+        <v>-168.02500000000001</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>50837.975503</v>
+        <v>50837.975503000001</v>
       </c>
       <c r="AF17" s="1">
-        <v>14.121660</v>
+        <v>14.12166</v>
       </c>
       <c r="AG17" s="1">
-        <v>1358.100000</v>
+        <v>1358.1</v>
       </c>
       <c r="AH17" s="1">
-        <v>-177.681000</v>
+        <v>-177.68100000000001</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>50848.190609</v>
+        <v>50848.190608999997</v>
       </c>
       <c r="AK17" s="1">
         <v>14.124497</v>
       </c>
       <c r="AL17" s="1">
-        <v>1378.610000</v>
+        <v>1378.61</v>
       </c>
       <c r="AM17" s="1">
-        <v>-207.699000</v>
+        <v>-207.69900000000001</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>50859.353603</v>
+        <v>50859.353603000003</v>
       </c>
       <c r="AP17" s="1">
-        <v>14.127598</v>
+        <v>14.127598000000001</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1400.240000</v>
+        <v>1400.24</v>
       </c>
       <c r="AR17" s="1">
-        <v>-251.520000</v>
+        <v>-251.52</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>50870.768037</v>
+        <v>50870.768037000002</v>
       </c>
       <c r="AU17" s="1">
-        <v>14.130769</v>
+        <v>14.130769000000001</v>
       </c>
       <c r="AV17" s="1">
-        <v>1424.930000</v>
+        <v>1424.93</v>
       </c>
       <c r="AW17" s="1">
-        <v>-311.408000</v>
+        <v>-311.40800000000002</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>50881.837717</v>
+        <v>50881.837717000002</v>
       </c>
       <c r="AZ17" s="1">
         <v>14.133844</v>
       </c>
       <c r="BA17" s="1">
-        <v>1444.360000</v>
+        <v>1444.36</v>
       </c>
       <c r="BB17" s="1">
-        <v>-363.370000</v>
+        <v>-363.37</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
         <v>50893.136583</v>
@@ -4501,377 +4917,377 @@
         <v>14.136982</v>
       </c>
       <c r="BF17" s="1">
-        <v>1529.990000</v>
+        <v>1529.99</v>
       </c>
       <c r="BG17" s="1">
-        <v>-610.372000</v>
+        <v>-610.37199999999996</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>50904.159671</v>
+        <v>50904.159671000001</v>
       </c>
       <c r="BJ17" s="1">
         <v>14.140044</v>
       </c>
       <c r="BK17" s="1">
-        <v>1684.820000</v>
+        <v>1684.82</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1052.490000</v>
+        <v>-1052.49</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>50914.497325</v>
+        <v>50914.497324999997</v>
       </c>
       <c r="BO17" s="1">
         <v>14.142916</v>
       </c>
       <c r="BP17" s="1">
-        <v>1979.640000</v>
+        <v>1979.64</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1816.880000</v>
+        <v>-1816.88</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>50925.132011</v>
+        <v>50925.132011000002</v>
       </c>
       <c r="BT17" s="1">
-        <v>14.145870</v>
+        <v>14.14587</v>
       </c>
       <c r="BU17" s="1">
-        <v>2364.550000</v>
+        <v>2364.5500000000002</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2697.450000</v>
+        <v>-2697.45</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>50936.034573</v>
+        <v>50936.034572999997</v>
       </c>
       <c r="BY17" s="1">
-        <v>14.148898</v>
+        <v>14.148898000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2850.670000</v>
+        <v>2850.67</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3658.730000</v>
+        <v>-3658.73</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>50948.431125</v>
+        <v>50948.431125000003</v>
       </c>
       <c r="CD17" s="1">
-        <v>14.152342</v>
+        <v>14.152342000000001</v>
       </c>
       <c r="CE17" s="1">
-        <v>4257.000000</v>
+        <v>4257</v>
       </c>
       <c r="CF17" s="1">
-        <v>-5959.180000</v>
+        <v>-5959.18</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>50776.552468</v>
+        <v>50776.552468000002</v>
       </c>
       <c r="B18" s="1">
-        <v>14.104598</v>
+        <v>14.104597999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>1243.810000</v>
+        <v>1243.81</v>
       </c>
       <c r="D18" s="1">
-        <v>-304.809000</v>
+        <v>-304.80900000000003</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>50786.988258</v>
+        <v>50786.988257999998</v>
       </c>
       <c r="G18" s="1">
         <v>14.107497</v>
       </c>
       <c r="H18" s="1">
-        <v>1268.930000</v>
+        <v>1268.93</v>
       </c>
       <c r="I18" s="1">
-        <v>-263.106000</v>
+        <v>-263.10599999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>50797.193977</v>
+        <v>50797.193977000003</v>
       </c>
       <c r="L18" s="1">
         <v>14.110332</v>
       </c>
       <c r="M18" s="1">
-        <v>1303.750000</v>
+        <v>1303.75</v>
       </c>
       <c r="N18" s="1">
-        <v>-201.259000</v>
+        <v>-201.25899999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>50807.440297</v>
+        <v>50807.440297000001</v>
       </c>
       <c r="Q18" s="1">
         <v>14.113178</v>
       </c>
       <c r="R18" s="1">
-        <v>1315.520000</v>
+        <v>1315.52</v>
       </c>
       <c r="S18" s="1">
-        <v>-183.223000</v>
+        <v>-183.22300000000001</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>50817.964443</v>
+        <v>50817.964442999997</v>
       </c>
       <c r="V18" s="1">
         <v>14.116101</v>
       </c>
       <c r="W18" s="1">
-        <v>1328.260000</v>
+        <v>1328.26</v>
       </c>
       <c r="X18" s="1">
-        <v>-169.953000</v>
+        <v>-169.953</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>50828.171608</v>
+        <v>50828.171607999997</v>
       </c>
       <c r="AA18" s="1">
-        <v>14.118937</v>
+        <v>14.118937000000001</v>
       </c>
       <c r="AB18" s="1">
-        <v>1345.350000</v>
+        <v>1345.35</v>
       </c>
       <c r="AC18" s="1">
-        <v>-167.891000</v>
+        <v>-167.89099999999999</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>50838.318736</v>
+        <v>50838.318736000001</v>
       </c>
       <c r="AF18" s="1">
         <v>14.121755</v>
       </c>
       <c r="AG18" s="1">
-        <v>1358.110000</v>
+        <v>1358.11</v>
       </c>
       <c r="AH18" s="1">
-        <v>-177.720000</v>
+        <v>-177.72</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>50848.538801</v>
+        <v>50848.538801000002</v>
       </c>
       <c r="AK18" s="1">
         <v>14.124594</v>
       </c>
       <c r="AL18" s="1">
-        <v>1378.620000</v>
+        <v>1378.62</v>
       </c>
       <c r="AM18" s="1">
-        <v>-207.711000</v>
+        <v>-207.71100000000001</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>50859.717634</v>
+        <v>50859.717634000001</v>
       </c>
       <c r="AP18" s="1">
         <v>14.127699</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1400.270000</v>
+        <v>1400.27</v>
       </c>
       <c r="AR18" s="1">
-        <v>-251.540000</v>
+        <v>-251.54</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>50871.442067</v>
+        <v>50871.442067000004</v>
       </c>
       <c r="AU18" s="1">
-        <v>14.130956</v>
+        <v>14.130955999999999</v>
       </c>
       <c r="AV18" s="1">
-        <v>1424.960000</v>
+        <v>1424.96</v>
       </c>
       <c r="AW18" s="1">
-        <v>-311.427000</v>
+        <v>-311.42700000000002</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
         <v>50882.507844</v>
       </c>
       <c r="AZ18" s="1">
-        <v>14.134030</v>
+        <v>14.134029999999999</v>
       </c>
       <c r="BA18" s="1">
-        <v>1444.360000</v>
+        <v>1444.36</v>
       </c>
       <c r="BB18" s="1">
-        <v>-363.386000</v>
+        <v>-363.38600000000002</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>50893.581531</v>
+        <v>50893.581531000003</v>
       </c>
       <c r="BE18" s="1">
-        <v>14.137106</v>
+        <v>14.137105999999999</v>
       </c>
       <c r="BF18" s="1">
-        <v>1529.960000</v>
+        <v>1529.96</v>
       </c>
       <c r="BG18" s="1">
-        <v>-610.411000</v>
+        <v>-610.41099999999994</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>50904.535640</v>
+        <v>50904.535640000002</v>
       </c>
       <c r="BJ18" s="1">
-        <v>14.140149</v>
+        <v>14.140148999999999</v>
       </c>
       <c r="BK18" s="1">
-        <v>1684.860000</v>
+        <v>1684.86</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1052.440000</v>
+        <v>-1052.44</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>50914.921865</v>
+        <v>50914.921864999997</v>
       </c>
       <c r="BO18" s="1">
         <v>14.143034</v>
       </c>
       <c r="BP18" s="1">
-        <v>1979.670000</v>
+        <v>1979.67</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1816.970000</v>
+        <v>-1816.97</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>50925.540260</v>
+        <v>50925.540260000002</v>
       </c>
       <c r="BT18" s="1">
-        <v>14.145983</v>
+        <v>14.145982999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>2364.980000</v>
+        <v>2364.98</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2697.500000</v>
+        <v>-2697.5</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>50936.456173</v>
+        <v>50936.456172999999</v>
       </c>
       <c r="BY18" s="1">
         <v>14.149016</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2850.980000</v>
+        <v>2850.98</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3658.180000</v>
+        <v>-3658.18</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>50948.974213</v>
+        <v>50948.974213000001</v>
       </c>
       <c r="CD18" s="1">
         <v>14.152493</v>
       </c>
       <c r="CE18" s="1">
-        <v>4267.840000</v>
+        <v>4267.84</v>
       </c>
       <c r="CF18" s="1">
-        <v>-5978.040000</v>
+        <v>-5978.04</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>50776.894672</v>
+        <v>50776.894672000002</v>
       </c>
       <c r="B19" s="1">
-        <v>14.104693</v>
+        <v>14.104692999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>1243.620000</v>
+        <v>1243.6199999999999</v>
       </c>
       <c r="D19" s="1">
-        <v>-304.930000</v>
+        <v>-304.93</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>50787.329542</v>
+        <v>50787.329541999999</v>
       </c>
       <c r="G19" s="1">
         <v>14.107592</v>
       </c>
       <c r="H19" s="1">
-        <v>1269.510000</v>
+        <v>1269.51</v>
       </c>
       <c r="I19" s="1">
-        <v>-263.063000</v>
+        <v>-263.06299999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
         <v>50797.538427</v>
@@ -4880,193 +5296,193 @@
         <v>14.110427</v>
       </c>
       <c r="M19" s="1">
-        <v>1303.700000</v>
+        <v>1303.7</v>
       </c>
       <c r="N19" s="1">
-        <v>-201.032000</v>
+        <v>-201.03200000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>50808.137356</v>
+        <v>50808.137355999999</v>
       </c>
       <c r="Q19" s="1">
-        <v>14.113371</v>
+        <v>14.113371000000001</v>
       </c>
       <c r="R19" s="1">
-        <v>1315.570000</v>
+        <v>1315.57</v>
       </c>
       <c r="S19" s="1">
-        <v>-183.296000</v>
+        <v>-183.29599999999999</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>50818.310121</v>
+        <v>50818.310121000002</v>
       </c>
       <c r="V19" s="1">
         <v>14.116197</v>
       </c>
       <c r="W19" s="1">
-        <v>1328.280000</v>
+        <v>1328.28</v>
       </c>
       <c r="X19" s="1">
-        <v>-169.894000</v>
+        <v>-169.89400000000001</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>50828.517787</v>
+        <v>50828.517786999997</v>
       </c>
       <c r="AA19" s="1">
         <v>14.119033</v>
       </c>
       <c r="AB19" s="1">
-        <v>1345.300000</v>
+        <v>1345.3</v>
       </c>
       <c r="AC19" s="1">
-        <v>-167.846000</v>
+        <v>-167.846</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
         <v>50838.661968</v>
       </c>
       <c r="AF19" s="1">
-        <v>14.121851</v>
+        <v>14.121850999999999</v>
       </c>
       <c r="AG19" s="1">
-        <v>1358.120000</v>
+        <v>1358.12</v>
       </c>
       <c r="AH19" s="1">
-        <v>-177.778000</v>
+        <v>-177.77799999999999</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>50848.890466</v>
+        <v>50848.890465999997</v>
       </c>
       <c r="AK19" s="1">
         <v>14.124692</v>
       </c>
       <c r="AL19" s="1">
-        <v>1378.590000</v>
+        <v>1378.59</v>
       </c>
       <c r="AM19" s="1">
-        <v>-207.736000</v>
+        <v>-207.73599999999999</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>50860.381777</v>
+        <v>50860.381777000002</v>
       </c>
       <c r="AP19" s="1">
         <v>14.127884</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1400.210000</v>
+        <v>1400.21</v>
       </c>
       <c r="AR19" s="1">
-        <v>-251.500000</v>
+        <v>-251.5</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>50871.862180</v>
+        <v>50871.862179999996</v>
       </c>
       <c r="AU19" s="1">
-        <v>14.131073</v>
+        <v>14.131073000000001</v>
       </c>
       <c r="AV19" s="1">
-        <v>1424.950000</v>
+        <v>1424.95</v>
       </c>
       <c r="AW19" s="1">
-        <v>-311.407000</v>
+        <v>-311.40699999999998</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>50882.922964</v>
+        <v>50882.922963999998</v>
       </c>
       <c r="AZ19" s="1">
         <v>14.134145</v>
       </c>
       <c r="BA19" s="1">
-        <v>1444.360000</v>
+        <v>1444.36</v>
       </c>
       <c r="BB19" s="1">
-        <v>-363.348000</v>
+        <v>-363.34800000000001</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>50893.943573</v>
+        <v>50893.943572999997</v>
       </c>
       <c r="BE19" s="1">
         <v>14.137207</v>
       </c>
       <c r="BF19" s="1">
-        <v>1530.000000</v>
+        <v>1530</v>
       </c>
       <c r="BG19" s="1">
-        <v>-610.366000</v>
+        <v>-610.36599999999999</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>50904.914086</v>
+        <v>50904.914085999997</v>
       </c>
       <c r="BJ19" s="1">
-        <v>14.140254</v>
+        <v>14.140254000000001</v>
       </c>
       <c r="BK19" s="1">
-        <v>1684.750000</v>
+        <v>1684.75</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1052.470000</v>
+        <v>-1052.47</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>50915.318169</v>
+        <v>50915.318168999998</v>
       </c>
       <c r="BO19" s="1">
-        <v>14.143144</v>
+        <v>14.143143999999999</v>
       </c>
       <c r="BP19" s="1">
-        <v>1979.620000</v>
+        <v>1979.62</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1817.010000</v>
+        <v>-1817.01</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>50925.973724</v>
+        <v>50925.973724000003</v>
       </c>
       <c r="BT19" s="1">
-        <v>14.146104</v>
+        <v>14.146103999999999</v>
       </c>
       <c r="BU19" s="1">
-        <v>2364.530000</v>
+        <v>2364.5300000000002</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2698.030000</v>
+        <v>-2698.03</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
         <v>50936.876075</v>
@@ -5075,317 +5491,317 @@
         <v>14.149132</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2850.530000</v>
+        <v>2850.53</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3657.750000</v>
+        <v>-3657.75</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>50949.515873</v>
+        <v>50949.515872999997</v>
       </c>
       <c r="CD19" s="1">
-        <v>14.152643</v>
+        <v>14.152642999999999</v>
       </c>
       <c r="CE19" s="1">
-        <v>4265.180000</v>
+        <v>4265.18</v>
       </c>
       <c r="CF19" s="1">
-        <v>-5953.300000</v>
+        <v>-5953.3</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>50777.235947</v>
+        <v>50777.235947000001</v>
       </c>
       <c r="B20" s="1">
-        <v>14.104788</v>
+        <v>14.104787999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>1243.660000</v>
+        <v>1243.6600000000001</v>
       </c>
       <c r="D20" s="1">
-        <v>-304.955000</v>
+        <v>-304.95499999999998</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <v>50788.021923</v>
       </c>
       <c r="G20" s="1">
-        <v>14.107784</v>
+        <v>14.107784000000001</v>
       </c>
       <c r="H20" s="1">
-        <v>1268.250000</v>
+        <v>1268.25</v>
       </c>
       <c r="I20" s="1">
-        <v>-263.407000</v>
+        <v>-263.40699999999998</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>50798.227108</v>
+        <v>50798.227107999999</v>
       </c>
       <c r="L20" s="1">
         <v>14.110619</v>
       </c>
       <c r="M20" s="1">
-        <v>1303.670000</v>
+        <v>1303.67</v>
       </c>
       <c r="N20" s="1">
-        <v>-201.414000</v>
+        <v>-201.41399999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>50808.489334</v>
+        <v>50808.489333999998</v>
       </c>
       <c r="Q20" s="1">
         <v>14.113469</v>
       </c>
       <c r="R20" s="1">
-        <v>1315.430000</v>
+        <v>1315.43</v>
       </c>
       <c r="S20" s="1">
-        <v>-183.274000</v>
+        <v>-183.274</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>50818.648425</v>
+        <v>50818.648424999999</v>
       </c>
       <c r="V20" s="1">
         <v>14.116291</v>
       </c>
       <c r="W20" s="1">
-        <v>1328.200000</v>
+        <v>1328.2</v>
       </c>
       <c r="X20" s="1">
-        <v>-169.979000</v>
+        <v>-169.97900000000001</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>50828.867964</v>
+        <v>50828.867963999997</v>
       </c>
       <c r="AA20" s="1">
-        <v>14.119130</v>
+        <v>14.11913</v>
       </c>
       <c r="AB20" s="1">
-        <v>1345.460000</v>
+        <v>1345.46</v>
       </c>
       <c r="AC20" s="1">
-        <v>-167.823000</v>
+        <v>-167.82300000000001</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>50839.318056</v>
+        <v>50839.318055999996</v>
       </c>
       <c r="AF20" s="1">
         <v>14.122033</v>
       </c>
       <c r="AG20" s="1">
-        <v>1358.070000</v>
+        <v>1358.07</v>
       </c>
       <c r="AH20" s="1">
-        <v>-177.694000</v>
+        <v>-177.69399999999999</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>50849.540720</v>
+        <v>50849.540719999997</v>
       </c>
       <c r="AK20" s="1">
         <v>14.124872</v>
       </c>
       <c r="AL20" s="1">
-        <v>1378.590000</v>
+        <v>1378.59</v>
       </c>
       <c r="AM20" s="1">
-        <v>-207.750000</v>
+        <v>-207.75</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>50860.824706</v>
+        <v>50860.824705999999</v>
       </c>
       <c r="AP20" s="1">
         <v>14.128007</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1400.250000</v>
+        <v>1400.25</v>
       </c>
       <c r="AR20" s="1">
-        <v>-251.537000</v>
+        <v>-251.53700000000001</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>50872.226242</v>
+        <v>50872.226241999997</v>
       </c>
       <c r="AU20" s="1">
         <v>14.131174</v>
       </c>
       <c r="AV20" s="1">
-        <v>1424.960000</v>
+        <v>1424.96</v>
       </c>
       <c r="AW20" s="1">
-        <v>-311.389000</v>
+        <v>-311.38900000000001</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>50883.299427</v>
+        <v>50883.299426999998</v>
       </c>
       <c r="AZ20" s="1">
-        <v>14.134250</v>
+        <v>14.13425</v>
       </c>
       <c r="BA20" s="1">
-        <v>1444.350000</v>
+        <v>1444.35</v>
       </c>
       <c r="BB20" s="1">
-        <v>-363.332000</v>
+        <v>-363.33199999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>50894.303174</v>
+        <v>50894.303174000001</v>
       </c>
       <c r="BE20" s="1">
-        <v>14.137306</v>
+        <v>14.137306000000001</v>
       </c>
       <c r="BF20" s="1">
-        <v>1529.990000</v>
+        <v>1529.99</v>
       </c>
       <c r="BG20" s="1">
-        <v>-610.413000</v>
+        <v>-610.41300000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>50905.335686</v>
+        <v>50905.335685999999</v>
       </c>
       <c r="BJ20" s="1">
         <v>14.140371</v>
       </c>
       <c r="BK20" s="1">
-        <v>1684.820000</v>
+        <v>1684.82</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1052.360000</v>
+        <v>-1052.3599999999999</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>50915.740303</v>
+        <v>50915.740302999999</v>
       </c>
       <c r="BO20" s="1">
-        <v>14.143261</v>
+        <v>14.143261000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1979.810000</v>
+        <v>1979.81</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1816.930000</v>
+        <v>-1816.93</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>50926.403786</v>
+        <v>50926.403786000003</v>
       </c>
       <c r="BT20" s="1">
-        <v>14.146223</v>
+        <v>14.146223000000001</v>
       </c>
       <c r="BU20" s="1">
-        <v>2364.770000</v>
+        <v>2364.77</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2698.330000</v>
+        <v>-2698.33</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>50937.302859</v>
+        <v>50937.302859000003</v>
       </c>
       <c r="BY20" s="1">
         <v>14.149251</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2850.110000</v>
+        <v>2850.11</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3658.880000</v>
+        <v>-3658.88</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>50950.052539</v>
+        <v>50950.052538999997</v>
       </c>
       <c r="CD20" s="1">
         <v>14.152792</v>
       </c>
       <c r="CE20" s="1">
-        <v>4258.650000</v>
+        <v>4258.6499999999996</v>
       </c>
       <c r="CF20" s="1">
-        <v>-5972.890000</v>
+        <v>-5972.89</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>50777.917918</v>
+        <v>50777.917917999999</v>
       </c>
       <c r="B21" s="1">
         <v>14.104977</v>
       </c>
       <c r="C21" s="1">
-        <v>1243.670000</v>
+        <v>1243.67</v>
       </c>
       <c r="D21" s="1">
-        <v>-305.192000</v>
+        <v>-305.19200000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>50788.365650</v>
+        <v>50788.36565</v>
       </c>
       <c r="G21" s="1">
-        <v>14.107879</v>
+        <v>14.107879000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>1268.800000</v>
+        <v>1268.8</v>
       </c>
       <c r="I21" s="1">
-        <v>-263.404000</v>
+        <v>-263.404</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
         <v>50798.578275</v>
@@ -5394,103 +5810,103 @@
         <v>14.110716</v>
       </c>
       <c r="M21" s="1">
-        <v>1303.770000</v>
+        <v>1303.77</v>
       </c>
       <c r="N21" s="1">
-        <v>-201.634000</v>
+        <v>-201.63399999999999</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>50808.835559</v>
+        <v>50808.835558999999</v>
       </c>
       <c r="Q21" s="1">
-        <v>14.113565</v>
+        <v>14.113564999999999</v>
       </c>
       <c r="R21" s="1">
-        <v>1315.390000</v>
+        <v>1315.39</v>
       </c>
       <c r="S21" s="1">
-        <v>-183.257000</v>
+        <v>-183.25700000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>50819.300169</v>
+        <v>50819.300169000002</v>
       </c>
       <c r="V21" s="1">
         <v>14.116472</v>
       </c>
       <c r="W21" s="1">
-        <v>1328.270000</v>
+        <v>1328.27</v>
       </c>
       <c r="X21" s="1">
-        <v>-169.725000</v>
+        <v>-169.72499999999999</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>50829.522682</v>
+        <v>50829.522682000003</v>
       </c>
       <c r="AA21" s="1">
-        <v>14.119312</v>
+        <v>14.119312000000001</v>
       </c>
       <c r="AB21" s="1">
-        <v>1345.220000</v>
+        <v>1345.22</v>
       </c>
       <c r="AC21" s="1">
-        <v>-167.792000</v>
+        <v>-167.792</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>50839.693186</v>
+        <v>50839.693185999997</v>
       </c>
       <c r="AF21" s="1">
         <v>14.122137</v>
       </c>
       <c r="AG21" s="1">
-        <v>1358.030000</v>
+        <v>1358.03</v>
       </c>
       <c r="AH21" s="1">
-        <v>-177.736000</v>
+        <v>-177.73599999999999</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>50849.935535</v>
+        <v>50849.935534999997</v>
       </c>
       <c r="AK21" s="1">
-        <v>14.124982</v>
+        <v>14.124981999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>1378.610000</v>
+        <v>1378.61</v>
       </c>
       <c r="AM21" s="1">
-        <v>-207.685000</v>
+        <v>-207.685</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>50861.186321</v>
+        <v>50861.186321000001</v>
       </c>
       <c r="AP21" s="1">
         <v>14.128107</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1400.250000</v>
+        <v>1400.25</v>
       </c>
       <c r="AR21" s="1">
-        <v>-251.533000</v>
+        <v>-251.53299999999999</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
         <v>50872.591793</v>
@@ -5499,103 +5915,103 @@
         <v>14.131275</v>
       </c>
       <c r="AV21" s="1">
-        <v>1424.950000</v>
+        <v>1424.95</v>
       </c>
       <c r="AW21" s="1">
-        <v>-311.400000</v>
+        <v>-311.39999999999998</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
         <v>50883.678408</v>
       </c>
       <c r="AZ21" s="1">
-        <v>14.134355</v>
+        <v>14.134354999999999</v>
       </c>
       <c r="BA21" s="1">
-        <v>1444.320000</v>
+        <v>1444.32</v>
       </c>
       <c r="BB21" s="1">
-        <v>-363.356000</v>
+        <v>-363.35599999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>50894.721833</v>
+        <v>50894.721833000003</v>
       </c>
       <c r="BE21" s="1">
         <v>14.137423</v>
       </c>
       <c r="BF21" s="1">
-        <v>1529.970000</v>
+        <v>1529.97</v>
       </c>
       <c r="BG21" s="1">
-        <v>-610.356000</v>
+        <v>-610.35599999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>50905.690325</v>
+        <v>50905.690325000003</v>
       </c>
       <c r="BJ21" s="1">
-        <v>14.140470</v>
+        <v>14.140470000000001</v>
       </c>
       <c r="BK21" s="1">
-        <v>1684.760000</v>
+        <v>1684.76</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1052.340000</v>
+        <v>-1052.3399999999999</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>50916.137592</v>
+        <v>50916.137591999999</v>
       </c>
       <c r="BO21" s="1">
-        <v>14.143372</v>
+        <v>14.143371999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1979.670000</v>
+        <v>1979.67</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1816.870000</v>
+        <v>-1816.87</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
         <v>50926.813488</v>
       </c>
       <c r="BT21" s="1">
-        <v>14.146337</v>
+        <v>14.146337000000001</v>
       </c>
       <c r="BU21" s="1">
-        <v>2364.470000</v>
+        <v>2364.4699999999998</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2698.610000</v>
+        <v>-2698.61</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>50937.717995</v>
+        <v>50937.717994999999</v>
       </c>
       <c r="BY21" s="1">
-        <v>14.149366</v>
+        <v>14.149366000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2849.510000</v>
+        <v>2849.51</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3658.250000</v>
+        <v>-3658.25</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
         <v>50950.594138</v>
@@ -5604,210 +6020,210 @@
         <v>14.152943</v>
       </c>
       <c r="CE21" s="1">
-        <v>4274.750000</v>
+        <v>4274.75</v>
       </c>
       <c r="CF21" s="1">
-        <v>-5963.490000</v>
+        <v>-5963.49</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>50778.258671</v>
+        <v>50778.258671000003</v>
       </c>
       <c r="B22" s="1">
         <v>14.105072</v>
       </c>
       <c r="C22" s="1">
-        <v>1243.660000</v>
+        <v>1243.6600000000001</v>
       </c>
       <c r="D22" s="1">
-        <v>-305.298000</v>
+        <v>-305.298</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>50788.718801</v>
+        <v>50788.718801000003</v>
       </c>
       <c r="G22" s="1">
         <v>14.107977</v>
       </c>
       <c r="H22" s="1">
-        <v>1268.280000</v>
+        <v>1268.28</v>
       </c>
       <c r="I22" s="1">
-        <v>-263.366000</v>
+        <v>-263.36599999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>50798.924482</v>
+        <v>50798.924482000002</v>
       </c>
       <c r="L22" s="1">
-        <v>14.110812</v>
+        <v>14.110811999999999</v>
       </c>
       <c r="M22" s="1">
-        <v>1303.820000</v>
+        <v>1303.82</v>
       </c>
       <c r="N22" s="1">
-        <v>-201.402000</v>
+        <v>-201.40199999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>50809.487287</v>
+        <v>50809.487287000004</v>
       </c>
       <c r="Q22" s="1">
-        <v>14.113746</v>
+        <v>14.113746000000001</v>
       </c>
       <c r="R22" s="1">
-        <v>1315.510000</v>
+        <v>1315.51</v>
       </c>
       <c r="S22" s="1">
-        <v>-183.199000</v>
+        <v>-183.19900000000001</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>50819.680103</v>
+        <v>50819.680102999999</v>
       </c>
       <c r="V22" s="1">
-        <v>14.116578</v>
+        <v>14.116578000000001</v>
       </c>
       <c r="W22" s="1">
-        <v>1328.370000</v>
+        <v>1328.37</v>
       </c>
       <c r="X22" s="1">
-        <v>-169.884000</v>
+        <v>-169.88399999999999</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>50829.913035</v>
+        <v>50829.913034999998</v>
       </c>
       <c r="AA22" s="1">
-        <v>14.119420</v>
+        <v>14.11942</v>
       </c>
       <c r="AB22" s="1">
-        <v>1345.350000</v>
+        <v>1345.35</v>
       </c>
       <c r="AC22" s="1">
-        <v>-167.813000</v>
+        <v>-167.81299999999999</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>50840.037900</v>
+        <v>50840.037900000003</v>
       </c>
       <c r="AF22" s="1">
         <v>14.122233</v>
       </c>
       <c r="AG22" s="1">
-        <v>1358.060000</v>
+        <v>1358.06</v>
       </c>
       <c r="AH22" s="1">
-        <v>-177.749000</v>
+        <v>-177.749</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>50850.306544</v>
+        <v>50850.306543999999</v>
       </c>
       <c r="AK22" s="1">
         <v>14.125085</v>
       </c>
       <c r="AL22" s="1">
-        <v>1378.610000</v>
+        <v>1378.61</v>
       </c>
       <c r="AM22" s="1">
-        <v>-207.715000</v>
+        <v>-207.715</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>50861.546916</v>
+        <v>50861.546915999999</v>
       </c>
       <c r="AP22" s="1">
         <v>14.128207</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1400.240000</v>
+        <v>1400.24</v>
       </c>
       <c r="AR22" s="1">
-        <v>-251.543000</v>
+        <v>-251.54300000000001</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>50873.007473</v>
+        <v>50873.007472999998</v>
       </c>
       <c r="AU22" s="1">
-        <v>14.131391</v>
+        <v>14.131391000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>1424.970000</v>
+        <v>1424.97</v>
       </c>
       <c r="AW22" s="1">
-        <v>-311.403000</v>
+        <v>-311.40300000000002</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>50884.097989</v>
+        <v>50884.097989000002</v>
       </c>
       <c r="AZ22" s="1">
-        <v>14.134472</v>
+        <v>14.134472000000001</v>
       </c>
       <c r="BA22" s="1">
-        <v>1444.330000</v>
+        <v>1444.33</v>
       </c>
       <c r="BB22" s="1">
-        <v>-363.329000</v>
+        <v>-363.32900000000001</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>50895.026835</v>
+        <v>50895.026834999997</v>
       </c>
       <c r="BE22" s="1">
-        <v>14.137507</v>
+        <v>14.137506999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1529.940000</v>
+        <v>1529.94</v>
       </c>
       <c r="BG22" s="1">
-        <v>-610.427000</v>
+        <v>-610.42700000000002</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>50906.065798</v>
+        <v>50906.065798000003</v>
       </c>
       <c r="BJ22" s="1">
-        <v>14.140574</v>
+        <v>14.140574000000001</v>
       </c>
       <c r="BK22" s="1">
-        <v>1684.880000</v>
+        <v>1684.88</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1052.390000</v>
+        <v>-1052.3900000000001</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
         <v>50916.555687</v>
@@ -5816,709 +6232,709 @@
         <v>14.143488</v>
       </c>
       <c r="BP22" s="1">
-        <v>1979.710000</v>
+        <v>1979.71</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1816.890000</v>
+        <v>-1816.89</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>50927.242490</v>
+        <v>50927.242489999997</v>
       </c>
       <c r="BT22" s="1">
-        <v>14.146456</v>
+        <v>14.146456000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>2365.000000</v>
+        <v>2365</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2698.570000</v>
+        <v>-2698.57</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>50938.172330</v>
+        <v>50938.172330000001</v>
       </c>
       <c r="BY22" s="1">
         <v>14.149492</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2849.820000</v>
+        <v>2849.82</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3658.500000</v>
+        <v>-3658.5</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>50951.132335</v>
+        <v>50951.132335000002</v>
       </c>
       <c r="CD22" s="1">
-        <v>14.153092</v>
+        <v>14.153091999999999</v>
       </c>
       <c r="CE22" s="1">
-        <v>4256.430000</v>
+        <v>4256.43</v>
       </c>
       <c r="CF22" s="1">
-        <v>-5960.930000</v>
+        <v>-5960.93</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>50778.601903</v>
+        <v>50778.601903000002</v>
       </c>
       <c r="B23" s="1">
         <v>14.105167</v>
       </c>
       <c r="C23" s="1">
-        <v>1243.390000</v>
+        <v>1243.3900000000001</v>
       </c>
       <c r="D23" s="1">
-        <v>-304.904000</v>
+        <v>-304.904</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>50789.373520</v>
+        <v>50789.373520000001</v>
       </c>
       <c r="G23" s="1">
-        <v>14.108159</v>
+        <v>14.108159000000001</v>
       </c>
       <c r="H23" s="1">
-        <v>1269.480000</v>
+        <v>1269.48</v>
       </c>
       <c r="I23" s="1">
-        <v>-262.712000</v>
+        <v>-262.71199999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>50799.586146</v>
+        <v>50799.586146000001</v>
       </c>
       <c r="L23" s="1">
         <v>14.110996</v>
       </c>
       <c r="M23" s="1">
-        <v>1303.710000</v>
+        <v>1303.71</v>
       </c>
       <c r="N23" s="1">
-        <v>-201.474000</v>
+        <v>-201.47399999999999</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>50809.881604</v>
+        <v>50809.881604000002</v>
       </c>
       <c r="Q23" s="1">
         <v>14.113856</v>
       </c>
       <c r="R23" s="1">
-        <v>1315.500000</v>
+        <v>1315.5</v>
       </c>
       <c r="S23" s="1">
-        <v>-183.207000</v>
+        <v>-183.20699999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>50820.022808</v>
+        <v>50820.022808000002</v>
       </c>
       <c r="V23" s="1">
         <v>14.116673</v>
       </c>
       <c r="W23" s="1">
-        <v>1328.270000</v>
+        <v>1328.27</v>
       </c>
       <c r="X23" s="1">
-        <v>-169.719000</v>
+        <v>-169.71899999999999</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>50830.262255</v>
+        <v>50830.262255000001</v>
       </c>
       <c r="AA23" s="1">
         <v>14.119517</v>
       </c>
       <c r="AB23" s="1">
-        <v>1345.200000</v>
+        <v>1345.2</v>
       </c>
       <c r="AC23" s="1">
-        <v>-167.884000</v>
+        <v>-167.88399999999999</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>50840.389037</v>
+        <v>50840.389037000001</v>
       </c>
       <c r="AF23" s="1">
-        <v>14.122330</v>
+        <v>14.12233</v>
       </c>
       <c r="AG23" s="1">
-        <v>1358.040000</v>
+        <v>1358.04</v>
       </c>
       <c r="AH23" s="1">
-        <v>-177.719000</v>
+        <v>-177.71899999999999</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>50850.636910</v>
+        <v>50850.636910000001</v>
       </c>
       <c r="AK23" s="1">
-        <v>14.125177</v>
+        <v>14.125177000000001</v>
       </c>
       <c r="AL23" s="1">
-        <v>1378.630000</v>
+        <v>1378.63</v>
       </c>
       <c r="AM23" s="1">
-        <v>-207.735000</v>
+        <v>-207.73500000000001</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>50861.968976</v>
+        <v>50861.968975999996</v>
       </c>
       <c r="AP23" s="1">
         <v>14.128325</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1400.270000</v>
+        <v>1400.27</v>
       </c>
       <c r="AR23" s="1">
-        <v>-251.557000</v>
+        <v>-251.55699999999999</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>50873.319424</v>
+        <v>50873.319424000001</v>
       </c>
       <c r="AU23" s="1">
         <v>14.131478</v>
       </c>
       <c r="AV23" s="1">
-        <v>1424.960000</v>
+        <v>1424.96</v>
       </c>
       <c r="AW23" s="1">
-        <v>-311.419000</v>
+        <v>-311.41899999999998</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>50884.395587</v>
+        <v>50884.395586999999</v>
       </c>
       <c r="AZ23" s="1">
         <v>14.134554</v>
       </c>
       <c r="BA23" s="1">
-        <v>1444.310000</v>
+        <v>1444.31</v>
       </c>
       <c r="BB23" s="1">
-        <v>-363.316000</v>
+        <v>-363.31599999999997</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>50895.387956</v>
+        <v>50895.387955999999</v>
       </c>
       <c r="BE23" s="1">
         <v>14.137608</v>
       </c>
       <c r="BF23" s="1">
-        <v>1529.950000</v>
+        <v>1529.95</v>
       </c>
       <c r="BG23" s="1">
-        <v>-610.379000</v>
+        <v>-610.37900000000002</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>50906.439782</v>
+        <v>50906.439782000001</v>
       </c>
       <c r="BJ23" s="1">
-        <v>14.140678</v>
+        <v>14.140677999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1684.800000</v>
+        <v>1684.8</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1052.360000</v>
+        <v>-1052.3599999999999</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>50916.954012</v>
+        <v>50916.954012000002</v>
       </c>
       <c r="BO23" s="1">
-        <v>14.143598</v>
+        <v>14.143598000000001</v>
       </c>
       <c r="BP23" s="1">
-        <v>1979.830000</v>
+        <v>1979.83</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1816.810000</v>
+        <v>-1816.81</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>50927.673513</v>
+        <v>50927.673513000002</v>
       </c>
       <c r="BT23" s="1">
         <v>14.146576</v>
       </c>
       <c r="BU23" s="1">
-        <v>2364.660000</v>
+        <v>2364.66</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2699.230000</v>
+        <v>-2699.23</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>50938.622735</v>
+        <v>50938.622734999997</v>
       </c>
       <c r="BY23" s="1">
-        <v>14.149617</v>
+        <v>14.149616999999999</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2849.900000</v>
+        <v>2849.9</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3658.530000</v>
+        <v>-3658.53</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>50951.675913</v>
+        <v>50951.675912999999</v>
       </c>
       <c r="CD23" s="1">
         <v>14.153243</v>
       </c>
       <c r="CE23" s="1">
-        <v>4269.090000</v>
+        <v>4269.09</v>
       </c>
       <c r="CF23" s="1">
-        <v>-5976.650000</v>
+        <v>-5976.65</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>50779.251662</v>
+        <v>50779.251662000002</v>
       </c>
       <c r="B24" s="1">
-        <v>14.105348</v>
+        <v>14.105347999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>1243.740000</v>
+        <v>1243.74</v>
       </c>
       <c r="D24" s="1">
-        <v>-304.827000</v>
+        <v>-304.827</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>50789.750975</v>
+        <v>50789.750975000003</v>
       </c>
       <c r="G24" s="1">
         <v>14.108264</v>
       </c>
       <c r="H24" s="1">
-        <v>1268.640000</v>
+        <v>1268.6400000000001</v>
       </c>
       <c r="I24" s="1">
-        <v>-263.421000</v>
+        <v>-263.42099999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>50799.958147</v>
+        <v>50799.958146999998</v>
       </c>
       <c r="L24" s="1">
-        <v>14.111099</v>
+        <v>14.111098999999999</v>
       </c>
       <c r="M24" s="1">
-        <v>1303.870000</v>
+        <v>1303.8699999999999</v>
       </c>
       <c r="N24" s="1">
-        <v>-200.901000</v>
+        <v>-200.90100000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>50810.228310</v>
+        <v>50810.228309999999</v>
       </c>
       <c r="Q24" s="1">
-        <v>14.113952</v>
+        <v>14.113951999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>1315.530000</v>
+        <v>1315.53</v>
       </c>
       <c r="S24" s="1">
-        <v>-183.259000</v>
+        <v>-183.25899999999999</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>50820.366534</v>
+        <v>50820.366534000001</v>
       </c>
       <c r="V24" s="1">
         <v>14.116768</v>
       </c>
       <c r="W24" s="1">
-        <v>1328.320000</v>
+        <v>1328.32</v>
       </c>
       <c r="X24" s="1">
-        <v>-169.876000</v>
+        <v>-169.876</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>50830.611897</v>
+        <v>50830.611897000003</v>
       </c>
       <c r="AA24" s="1">
         <v>14.119614</v>
       </c>
       <c r="AB24" s="1">
-        <v>1345.190000</v>
+        <v>1345.19</v>
       </c>
       <c r="AC24" s="1">
-        <v>-167.871000</v>
+        <v>-167.87100000000001</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>50840.799757</v>
+        <v>50840.799757000001</v>
       </c>
       <c r="AF24" s="1">
         <v>14.122444</v>
       </c>
       <c r="AG24" s="1">
-        <v>1358.070000</v>
+        <v>1358.07</v>
       </c>
       <c r="AH24" s="1">
-        <v>-177.646000</v>
+        <v>-177.64599999999999</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>50851.331811</v>
+        <v>50851.331810999996</v>
       </c>
       <c r="AK24" s="1">
-        <v>14.125370</v>
+        <v>14.12537</v>
       </c>
       <c r="AL24" s="1">
-        <v>1378.620000</v>
+        <v>1378.62</v>
       </c>
       <c r="AM24" s="1">
-        <v>-207.714000</v>
+        <v>-207.714</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>50862.266079</v>
+        <v>50862.266079000001</v>
       </c>
       <c r="AP24" s="1">
-        <v>14.128407</v>
+        <v>14.128406999999999</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1400.250000</v>
+        <v>1400.25</v>
       </c>
       <c r="AR24" s="1">
-        <v>-251.563000</v>
+        <v>-251.56299999999999</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>50873.686464</v>
+        <v>50873.686463999999</v>
       </c>
       <c r="AU24" s="1">
-        <v>14.131580</v>
+        <v>14.13158</v>
       </c>
       <c r="AV24" s="1">
-        <v>1424.960000</v>
+        <v>1424.96</v>
       </c>
       <c r="AW24" s="1">
-        <v>-311.400000</v>
+        <v>-311.39999999999998</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>50884.754225</v>
+        <v>50884.754224999997</v>
       </c>
       <c r="AZ24" s="1">
-        <v>14.134654</v>
+        <v>14.134653999999999</v>
       </c>
       <c r="BA24" s="1">
-        <v>1444.370000</v>
+        <v>1444.37</v>
       </c>
       <c r="BB24" s="1">
-        <v>-363.329000</v>
+        <v>-363.32900000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>50895.751030</v>
+        <v>50895.751029999999</v>
       </c>
       <c r="BE24" s="1">
-        <v>14.137709</v>
+        <v>14.137708999999999</v>
       </c>
       <c r="BF24" s="1">
-        <v>1529.970000</v>
+        <v>1529.97</v>
       </c>
       <c r="BG24" s="1">
-        <v>-610.406000</v>
+        <v>-610.40599999999995</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>50906.857910</v>
+        <v>50906.857909999999</v>
       </c>
       <c r="BJ24" s="1">
         <v>14.140794</v>
       </c>
       <c r="BK24" s="1">
-        <v>1684.830000</v>
+        <v>1684.83</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1052.340000</v>
+        <v>-1052.3399999999999</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>50917.375575</v>
+        <v>50917.375574999998</v>
       </c>
       <c r="BO24" s="1">
         <v>14.143715</v>
       </c>
       <c r="BP24" s="1">
-        <v>1979.670000</v>
+        <v>1979.67</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1816.920000</v>
+        <v>-1816.92</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>50928.086216</v>
+        <v>50928.086216000003</v>
       </c>
       <c r="BT24" s="1">
-        <v>14.146691</v>
+        <v>14.146691000000001</v>
       </c>
       <c r="BU24" s="1">
-        <v>2364.920000</v>
+        <v>2364.92</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2699.370000</v>
+        <v>-2699.37</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>50939.045291</v>
+        <v>50939.045291000002</v>
       </c>
       <c r="BY24" s="1">
         <v>14.149735</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2850.510000</v>
+        <v>2850.51</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3658.150000</v>
+        <v>-3658.15</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>50952.212098</v>
+        <v>50952.212098000004</v>
       </c>
       <c r="CD24" s="1">
         <v>14.153392</v>
       </c>
       <c r="CE24" s="1">
-        <v>4261.910000</v>
+        <v>4261.91</v>
       </c>
       <c r="CF24" s="1">
-        <v>-5953.090000</v>
+        <v>-5953.09</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>50779.627132</v>
+        <v>50779.627132000001</v>
       </c>
       <c r="B25" s="1">
         <v>14.105452</v>
       </c>
       <c r="C25" s="1">
-        <v>1243.700000</v>
+        <v>1243.7</v>
       </c>
       <c r="D25" s="1">
-        <v>-305.096000</v>
+        <v>-305.096</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>50790.097678</v>
+        <v>50790.097677999998</v>
       </c>
       <c r="G25" s="1">
-        <v>14.108360</v>
+        <v>14.108359999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>1268.330000</v>
+        <v>1268.33</v>
       </c>
       <c r="I25" s="1">
-        <v>-263.961000</v>
+        <v>-263.96100000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>50800.302370</v>
+        <v>50800.302369999998</v>
       </c>
       <c r="L25" s="1">
         <v>14.111195</v>
       </c>
       <c r="M25" s="1">
-        <v>1303.900000</v>
+        <v>1303.9000000000001</v>
       </c>
       <c r="N25" s="1">
-        <v>-201.244000</v>
+        <v>-201.244</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>50810.578516</v>
+        <v>50810.578516000001</v>
       </c>
       <c r="Q25" s="1">
-        <v>14.114050</v>
+        <v>14.114050000000001</v>
       </c>
       <c r="R25" s="1">
-        <v>1315.400000</v>
+        <v>1315.4</v>
       </c>
       <c r="S25" s="1">
-        <v>-183.305000</v>
+        <v>-183.30500000000001</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>50820.783707</v>
+        <v>50820.783707000002</v>
       </c>
       <c r="V25" s="1">
-        <v>14.116884</v>
+        <v>14.116884000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>1328.280000</v>
+        <v>1328.28</v>
       </c>
       <c r="X25" s="1">
-        <v>-169.883000</v>
+        <v>-169.88300000000001</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>50831.031016</v>
+        <v>50831.031016000001</v>
       </c>
       <c r="AA25" s="1">
         <v>14.119731</v>
       </c>
       <c r="AB25" s="1">
-        <v>1345.410000</v>
+        <v>1345.41</v>
       </c>
       <c r="AC25" s="1">
-        <v>-167.851000</v>
+        <v>-167.851</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>50841.090909</v>
+        <v>50841.090908999999</v>
       </c>
       <c r="AF25" s="1">
         <v>14.122525</v>
       </c>
       <c r="AG25" s="1">
-        <v>1358.140000</v>
+        <v>1358.14</v>
       </c>
       <c r="AH25" s="1">
-        <v>-177.932000</v>
+        <v>-177.93199999999999</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>50851.683713</v>
+        <v>50851.683712999999</v>
       </c>
       <c r="AK25" s="1">
         <v>14.125468</v>
       </c>
       <c r="AL25" s="1">
-        <v>1378.600000</v>
+        <v>1378.6</v>
       </c>
       <c r="AM25" s="1">
-        <v>-207.699000</v>
+        <v>-207.69900000000001</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>50862.628686</v>
+        <v>50862.628685999996</v>
       </c>
       <c r="AP25" s="1">
         <v>14.128508</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1400.260000</v>
+        <v>1400.26</v>
       </c>
       <c r="AR25" s="1">
-        <v>-251.506000</v>
+        <v>-251.506</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
         <v>50874.051024</v>
@@ -6527,330 +6943,330 @@
         <v>14.131681</v>
       </c>
       <c r="AV25" s="1">
-        <v>1424.970000</v>
+        <v>1424.97</v>
       </c>
       <c r="AW25" s="1">
-        <v>-311.411000</v>
+        <v>-311.411</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>50885.472432</v>
+        <v>50885.472432000002</v>
       </c>
       <c r="AZ25" s="1">
         <v>14.134853</v>
       </c>
       <c r="BA25" s="1">
-        <v>1444.350000</v>
+        <v>1444.35</v>
       </c>
       <c r="BB25" s="1">
-        <v>-363.279000</v>
+        <v>-363.279</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>50896.470690</v>
+        <v>50896.470690000002</v>
       </c>
       <c r="BE25" s="1">
-        <v>14.137909</v>
+        <v>14.137909000000001</v>
       </c>
       <c r="BF25" s="1">
-        <v>1529.960000</v>
+        <v>1529.96</v>
       </c>
       <c r="BG25" s="1">
-        <v>-610.345000</v>
+        <v>-610.34500000000003</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>50907.215063</v>
+        <v>50907.215063000003</v>
       </c>
       <c r="BJ25" s="1">
         <v>14.140893</v>
       </c>
       <c r="BK25" s="1">
-        <v>1684.790000</v>
+        <v>1684.79</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1052.330000</v>
+        <v>-1052.33</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>50917.821017</v>
+        <v>50917.821017000002</v>
       </c>
       <c r="BO25" s="1">
         <v>14.143839</v>
       </c>
       <c r="BP25" s="1">
-        <v>1979.800000</v>
+        <v>1979.8</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1816.920000</v>
+        <v>-1816.92</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>50928.516215</v>
+        <v>50928.516215000003</v>
       </c>
       <c r="BT25" s="1">
-        <v>14.146810</v>
+        <v>14.14681</v>
       </c>
       <c r="BU25" s="1">
-        <v>2365.170000</v>
+        <v>2365.17</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2699.850000</v>
+        <v>-2699.85</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>50939.779866</v>
+        <v>50939.779865999997</v>
       </c>
       <c r="BY25" s="1">
         <v>14.149939</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2849.590000</v>
+        <v>2849.59</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3657.430000</v>
+        <v>-3657.43</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>50952.752728</v>
+        <v>50952.752727999999</v>
       </c>
       <c r="CD25" s="1">
         <v>14.153542</v>
       </c>
       <c r="CE25" s="1">
-        <v>4258.340000</v>
+        <v>4258.34</v>
       </c>
       <c r="CF25" s="1">
-        <v>-5974.150000</v>
+        <v>-5974.15</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>50779.972348</v>
+        <v>50779.972348000003</v>
       </c>
       <c r="B26" s="1">
-        <v>14.105548</v>
+        <v>14.105548000000001</v>
       </c>
       <c r="C26" s="1">
-        <v>1243.620000</v>
+        <v>1243.6199999999999</v>
       </c>
       <c r="D26" s="1">
-        <v>-304.958000</v>
+        <v>-304.95800000000003</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>50790.441902</v>
+        <v>50790.441901999999</v>
       </c>
       <c r="G26" s="1">
         <v>14.108456</v>
       </c>
       <c r="H26" s="1">
-        <v>1268.420000</v>
+        <v>1268.42</v>
       </c>
       <c r="I26" s="1">
-        <v>-263.169000</v>
+        <v>-263.16899999999998</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>50800.742817</v>
+        <v>50800.742816999998</v>
       </c>
       <c r="L26" s="1">
         <v>14.111317</v>
       </c>
       <c r="M26" s="1">
-        <v>1303.710000</v>
+        <v>1303.71</v>
       </c>
       <c r="N26" s="1">
-        <v>-201.061000</v>
+        <v>-201.06100000000001</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
         <v>50810.996648</v>
       </c>
       <c r="Q26" s="1">
-        <v>14.114166</v>
+        <v>14.114166000000001</v>
       </c>
       <c r="R26" s="1">
-        <v>1315.450000</v>
+        <v>1315.45</v>
       </c>
       <c r="S26" s="1">
-        <v>-183.259000</v>
+        <v>-183.25899999999999</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>50821.058984</v>
+        <v>50821.058984000003</v>
       </c>
       <c r="V26" s="1">
         <v>14.116961</v>
       </c>
       <c r="W26" s="1">
-        <v>1328.320000</v>
+        <v>1328.32</v>
       </c>
       <c r="X26" s="1">
-        <v>-169.744000</v>
+        <v>-169.744</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>50831.320712</v>
+        <v>50831.320712000001</v>
       </c>
       <c r="AA26" s="1">
         <v>14.119811</v>
       </c>
       <c r="AB26" s="1">
-        <v>1345.200000</v>
+        <v>1345.2</v>
       </c>
       <c r="AC26" s="1">
-        <v>-168.030000</v>
+        <v>-168.03</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>50841.435099</v>
+        <v>50841.435099000002</v>
       </c>
       <c r="AF26" s="1">
-        <v>14.122621</v>
+        <v>14.122621000000001</v>
       </c>
       <c r="AG26" s="1">
-        <v>1357.760000</v>
+        <v>1357.76</v>
       </c>
       <c r="AH26" s="1">
-        <v>-177.969000</v>
+        <v>-177.96899999999999</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
         <v>50852.031165</v>
       </c>
       <c r="AK26" s="1">
-        <v>14.125564</v>
+        <v>14.125564000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>1378.620000</v>
+        <v>1378.62</v>
       </c>
       <c r="AM26" s="1">
-        <v>-207.688000</v>
+        <v>-207.68799999999999</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>50862.988750</v>
+        <v>50862.988749999997</v>
       </c>
       <c r="AP26" s="1">
         <v>14.128608</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1400.240000</v>
+        <v>1400.24</v>
       </c>
       <c r="AR26" s="1">
-        <v>-251.541000</v>
+        <v>-251.541</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>50874.780643</v>
+        <v>50874.780642999998</v>
       </c>
       <c r="AU26" s="1">
-        <v>14.131884</v>
+        <v>14.131883999999999</v>
       </c>
       <c r="AV26" s="1">
-        <v>1424.890000</v>
+        <v>1424.89</v>
       </c>
       <c r="AW26" s="1">
-        <v>-311.425000</v>
+        <v>-311.42500000000001</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>50885.831504</v>
+        <v>50885.831504000002</v>
       </c>
       <c r="AZ26" s="1">
-        <v>14.134953</v>
+        <v>14.134952999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>1444.340000</v>
+        <v>1444.34</v>
       </c>
       <c r="BB26" s="1">
-        <v>-363.353000</v>
+        <v>-363.35300000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>50896.831807</v>
+        <v>50896.831807000002</v>
       </c>
       <c r="BE26" s="1">
         <v>14.138009</v>
       </c>
       <c r="BF26" s="1">
-        <v>1529.980000</v>
+        <v>1529.98</v>
       </c>
       <c r="BG26" s="1">
-        <v>-610.366000</v>
+        <v>-610.36599999999999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>50907.587059</v>
+        <v>50907.587058999998</v>
       </c>
       <c r="BJ26" s="1">
-        <v>14.140996</v>
+        <v>14.140995999999999</v>
       </c>
       <c r="BK26" s="1">
-        <v>1684.860000</v>
+        <v>1684.86</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1052.350000</v>
+        <v>-1052.3499999999999</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>50918.193479</v>
+        <v>50918.193479000001</v>
       </c>
       <c r="BO26" s="1">
         <v>14.143943</v>
       </c>
       <c r="BP26" s="1">
-        <v>1979.700000</v>
+        <v>1979.7</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1816.670000</v>
+        <v>-1816.67</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
         <v>50929.252774</v>
@@ -6859,45 +7275,46 @@
         <v>14.147015</v>
       </c>
       <c r="BU26" s="1">
-        <v>2365.560000</v>
+        <v>2365.56</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2699.500000</v>
+        <v>-2699.5</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>50939.892468</v>
+        <v>50939.892467999998</v>
       </c>
       <c r="BY26" s="1">
-        <v>14.149970</v>
+        <v>14.14997</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2849.750000</v>
+        <v>2849.75</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3657.310000</v>
+        <v>-3657.31</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>50953.295879</v>
+        <v>50953.295878999998</v>
       </c>
       <c r="CD26" s="1">
-        <v>14.153693</v>
+        <v>14.153693000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>4273.280000</v>
+        <v>4273.28</v>
       </c>
       <c r="CF26" s="1">
-        <v>-5960.520000</v>
+        <v>-5960.52</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>